--- a/TAKEOFF CONCEPT.xlsx
+++ b/TAKEOFF CONCEPT.xlsx
@@ -2860,7 +2860,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="100">
   <si>
     <t>MK</t>
   </si>
@@ -3176,22 +3176,55 @@
     <t>4</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>LOAD NOTE</t>
   </si>
   <si>
     <t>JOIST REMARKS</t>
   </si>
   <si>
-    <t>WH</t>
+    <t>Load Note</t>
   </si>
   <si>
-    <t>Load Note</t>
+    <t>BRACE</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>32LH300/150</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>DL</t>
   </si>
 </sst>
 </file>
@@ -4545,105 +4578,8 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="6"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4652,81 +4588,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -4742,15 +4608,216 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4760,41 +4827,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4806,46 +4879,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -5159,82 +5192,82 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="163" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="136" t="s">
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="136"/>
-      <c r="O2" s="148" t="s">
+      <c r="N2" s="108"/>
+      <c r="O2" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="166"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="121"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="153" t="s">
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="136" t="s">
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="136"/>
-      <c r="O3" s="158" t="s">
+      <c r="N3" s="108"/>
+      <c r="O3" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="158"/>
+      <c r="P3" s="110"/>
       <c r="Q3" s="57" t="s">
         <v>39</v>
       </c>
@@ -5243,102 +5276,102 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="153" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="136" t="s">
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="136"/>
-      <c r="O4" s="153" t="s">
+      <c r="N4" s="108"/>
+      <c r="O4" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="153"/>
-      <c r="R4" s="160"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="111"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="153" t="s">
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="153"/>
-      <c r="M5" s="136" t="s">
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="137" t="s">
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="138"/>
+      <c r="R5" s="127"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="154"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="153"/>
-      <c r="M6" s="136" t="s">
+      <c r="A6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
-      <c r="P6" s="136"/>
-      <c r="Q6" s="158" t="s">
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="159"/>
+      <c r="R6" s="132"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="156"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="153"/>
-      <c r="M7" s="136" t="s">
+      <c r="A7" s="130"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="136"/>
+      <c r="N7" s="108"/>
       <c r="O7" s="59">
         <v>1</v>
       </c>
@@ -5351,644 +5384,644 @@
       <c r="R7" s="61"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="148" t="s">
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="147" t="s">
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="147"/>
-      <c r="I8" s="149" t="s">
+      <c r="H8" s="122"/>
+      <c r="I8" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="149"/>
-      <c r="K8" s="147" t="s">
+      <c r="J8" s="118"/>
+      <c r="K8" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="147"/>
-      <c r="M8" s="150" t="s">
+      <c r="L8" s="122"/>
+      <c r="M8" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="151"/>
-      <c r="O8" s="151"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="151"/>
-      <c r="R8" s="152"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="125"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="137" t="s">
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="136" t="s">
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="136"/>
-      <c r="I9" s="137" t="s">
+      <c r="H9" s="108"/>
+      <c r="I9" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="137"/>
-      <c r="K9" s="136" t="s">
+      <c r="J9" s="126"/>
+      <c r="K9" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="136"/>
-      <c r="M9" s="137" t="s">
+      <c r="L9" s="108"/>
+      <c r="M9" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="145"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="137"/>
+      <c r="R9" s="138"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="136"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="137" t="s">
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="137"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="137"/>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="138"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="126"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="127"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="139"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="137"/>
-      <c r="O11" s="137"/>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="137"/>
-      <c r="R11" s="138"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="127"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="136"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="141" t="s">
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="142"/>
-      <c r="M12" s="142"/>
-      <c r="N12" s="142"/>
-      <c r="O12" s="142"/>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="142"/>
-      <c r="R12" s="143"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="136"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="128"/>
-      <c r="C13" s="129" t="s">
+      <c r="B13" s="143"/>
+      <c r="C13" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="130"/>
-      <c r="O13" s="130"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="131"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="146"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133"/>
-      <c r="O14" s="133"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="133"/>
-      <c r="R14" s="134"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="148"/>
+      <c r="R14" s="149"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="63"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="125"/>
-      <c r="R15" s="126"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="140"/>
+      <c r="Q15" s="140"/>
+      <c r="R15" s="141"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="63"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="126"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="140"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="140"/>
+      <c r="N16" s="140"/>
+      <c r="O16" s="140"/>
+      <c r="P16" s="140"/>
+      <c r="Q16" s="140"/>
+      <c r="R16" s="141"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="63"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="126"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="140"/>
+      <c r="O17" s="140"/>
+      <c r="P17" s="140"/>
+      <c r="Q17" s="140"/>
+      <c r="R17" s="141"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="63"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="126"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="141"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="63"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="126"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="140"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="140"/>
+      <c r="Q19" s="140"/>
+      <c r="R19" s="141"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="63"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="126"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="140"/>
+      <c r="O20" s="140"/>
+      <c r="P20" s="140"/>
+      <c r="Q20" s="140"/>
+      <c r="R20" s="141"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="63"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="126"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="140"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="140"/>
+      <c r="N21" s="140"/>
+      <c r="O21" s="140"/>
+      <c r="P21" s="140"/>
+      <c r="Q21" s="140"/>
+      <c r="R21" s="141"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="63"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="126"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="140"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="140"/>
+      <c r="N22" s="140"/>
+      <c r="O22" s="140"/>
+      <c r="P22" s="140"/>
+      <c r="Q22" s="140"/>
+      <c r="R22" s="141"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="63"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="126"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="140"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="140"/>
+      <c r="N23" s="140"/>
+      <c r="O23" s="140"/>
+      <c r="P23" s="140"/>
+      <c r="Q23" s="140"/>
+      <c r="R23" s="141"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="63"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="126"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="140"/>
+      <c r="K24" s="140"/>
+      <c r="L24" s="140"/>
+      <c r="M24" s="140"/>
+      <c r="N24" s="140"/>
+      <c r="O24" s="140"/>
+      <c r="P24" s="140"/>
+      <c r="Q24" s="140"/>
+      <c r="R24" s="141"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="63"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="126"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="140"/>
+      <c r="L25" s="140"/>
+      <c r="M25" s="140"/>
+      <c r="N25" s="140"/>
+      <c r="O25" s="140"/>
+      <c r="P25" s="140"/>
+      <c r="Q25" s="140"/>
+      <c r="R25" s="141"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="63"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="125"/>
-      <c r="R26" s="126"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="140"/>
+      <c r="O26" s="140"/>
+      <c r="P26" s="140"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="141"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="63"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="126"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="140"/>
+      <c r="L27" s="140"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="140"/>
+      <c r="O27" s="140"/>
+      <c r="P27" s="140"/>
+      <c r="Q27" s="140"/>
+      <c r="R27" s="141"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="63"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="125"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="125"/>
-      <c r="Q28" s="125"/>
-      <c r="R28" s="126"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="140"/>
+      <c r="P28" s="140"/>
+      <c r="Q28" s="140"/>
+      <c r="R28" s="141"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="63"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="125"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="125"/>
-      <c r="P29" s="125"/>
-      <c r="Q29" s="125"/>
-      <c r="R29" s="126"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="140"/>
+      <c r="N29" s="140"/>
+      <c r="O29" s="140"/>
+      <c r="P29" s="140"/>
+      <c r="Q29" s="140"/>
+      <c r="R29" s="141"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="63"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="125"/>
-      <c r="Q30" s="125"/>
-      <c r="R30" s="126"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="140"/>
+      <c r="L30" s="140"/>
+      <c r="M30" s="140"/>
+      <c r="N30" s="140"/>
+      <c r="O30" s="140"/>
+      <c r="P30" s="140"/>
+      <c r="Q30" s="140"/>
+      <c r="R30" s="141"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="63"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="125"/>
-      <c r="Q31" s="125"/>
-      <c r="R31" s="126"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="140"/>
+      <c r="M31" s="140"/>
+      <c r="N31" s="140"/>
+      <c r="O31" s="140"/>
+      <c r="P31" s="140"/>
+      <c r="Q31" s="140"/>
+      <c r="R31" s="141"/>
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
-      <c r="B32" s="124"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="125"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="125"/>
-      <c r="P32" s="125"/>
-      <c r="Q32" s="125"/>
-      <c r="R32" s="126"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="140"/>
+      <c r="M32" s="140"/>
+      <c r="N32" s="140"/>
+      <c r="O32" s="140"/>
+      <c r="P32" s="140"/>
+      <c r="Q32" s="140"/>
+      <c r="R32" s="141"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
-      <c r="B33" s="124"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="125"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="125"/>
-      <c r="N33" s="125"/>
-      <c r="O33" s="125"/>
-      <c r="P33" s="125"/>
-      <c r="Q33" s="125"/>
-      <c r="R33" s="126"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="140"/>
+      <c r="M33" s="140"/>
+      <c r="N33" s="140"/>
+      <c r="O33" s="140"/>
+      <c r="P33" s="140"/>
+      <c r="Q33" s="140"/>
+      <c r="R33" s="141"/>
     </row>
     <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
-      <c r="B34" s="124"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="125"/>
-      <c r="M34" s="125"/>
-      <c r="N34" s="125"/>
-      <c r="O34" s="125"/>
-      <c r="P34" s="125"/>
-      <c r="Q34" s="125"/>
-      <c r="R34" s="126"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="140"/>
+      <c r="K34" s="140"/>
+      <c r="L34" s="140"/>
+      <c r="M34" s="140"/>
+      <c r="N34" s="140"/>
+      <c r="O34" s="140"/>
+      <c r="P34" s="140"/>
+      <c r="Q34" s="140"/>
+      <c r="R34" s="141"/>
     </row>
     <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="125"/>
-      <c r="O35" s="125"/>
-      <c r="P35" s="125"/>
-      <c r="Q35" s="125"/>
-      <c r="R35" s="126"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="140"/>
+      <c r="F35" s="140"/>
+      <c r="G35" s="140"/>
+      <c r="H35" s="140"/>
+      <c r="I35" s="140"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="140"/>
+      <c r="L35" s="140"/>
+      <c r="M35" s="140"/>
+      <c r="N35" s="140"/>
+      <c r="O35" s="140"/>
+      <c r="P35" s="140"/>
+      <c r="Q35" s="140"/>
+      <c r="R35" s="141"/>
     </row>
     <row r="36" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="64"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="116"/>
-      <c r="M36" s="116"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="116"/>
-      <c r="Q36" s="116"/>
-      <c r="R36" s="117"/>
+      <c r="B36" s="153"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
+      <c r="K36" s="154"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
+      <c r="N36" s="154"/>
+      <c r="O36" s="154"/>
+      <c r="P36" s="154"/>
+      <c r="Q36" s="154"/>
+      <c r="R36" s="155"/>
     </row>
     <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="118" t="s">
+      <c r="A37" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="119"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="118" t="s">
+      <c r="B37" s="157"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="158"/>
+      <c r="I37" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="J37" s="119"/>
-      <c r="K37" s="119"/>
-      <c r="L37" s="119"/>
-      <c r="M37" s="119"/>
-      <c r="N37" s="119"/>
-      <c r="O37" s="119"/>
-      <c r="P37" s="119"/>
-      <c r="Q37" s="119"/>
-      <c r="R37" s="120"/>
+      <c r="J37" s="157"/>
+      <c r="K37" s="157"/>
+      <c r="L37" s="157"/>
+      <c r="M37" s="157"/>
+      <c r="N37" s="157"/>
+      <c r="O37" s="157"/>
+      <c r="P37" s="157"/>
+      <c r="Q37" s="157"/>
+      <c r="R37" s="158"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="65" t="s">
@@ -6018,22 +6051,22 @@
       <c r="I38" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="J38" s="121" t="s">
+      <c r="J38" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="122"/>
+      <c r="K38" s="160"/>
       <c r="L38" s="67" t="s">
         <v>1</v>
       </c>
       <c r="M38" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="N38" s="121" t="s">
+      <c r="N38" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="O38" s="123"/>
-      <c r="P38" s="123"/>
-      <c r="Q38" s="122"/>
+      <c r="O38" s="161"/>
+      <c r="P38" s="161"/>
+      <c r="Q38" s="160"/>
       <c r="R38" s="69" t="s">
         <v>1</v>
       </c>
@@ -6058,18 +6091,18 @@
       <c r="I39" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="106" t="s">
+      <c r="J39" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="K39" s="107"/>
+      <c r="K39" s="151"/>
       <c r="L39" s="73" t="s">
         <v>36</v>
       </c>
       <c r="M39" s="74"/>
-      <c r="N39" s="106"/>
-      <c r="O39" s="108"/>
-      <c r="P39" s="108"/>
-      <c r="Q39" s="107"/>
+      <c r="N39" s="150"/>
+      <c r="O39" s="152"/>
+      <c r="P39" s="152"/>
+      <c r="Q39" s="151"/>
       <c r="R39" s="76"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6082,14 +6115,14 @@
       <c r="G40" s="72"/>
       <c r="H40" s="75"/>
       <c r="I40" s="70"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="107"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="151"/>
       <c r="L40" s="73"/>
       <c r="M40" s="74"/>
-      <c r="N40" s="106"/>
-      <c r="O40" s="108"/>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="107"/>
+      <c r="N40" s="150"/>
+      <c r="O40" s="152"/>
+      <c r="P40" s="152"/>
+      <c r="Q40" s="151"/>
       <c r="R40" s="76"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6102,14 +6135,14 @@
       <c r="G41" s="72"/>
       <c r="H41" s="75"/>
       <c r="I41" s="70"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="107"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="151"/>
       <c r="L41" s="73"/>
       <c r="M41" s="74"/>
-      <c r="N41" s="106"/>
-      <c r="O41" s="108"/>
-      <c r="P41" s="108"/>
-      <c r="Q41" s="107"/>
+      <c r="N41" s="150"/>
+      <c r="O41" s="152"/>
+      <c r="P41" s="152"/>
+      <c r="Q41" s="151"/>
       <c r="R41" s="76"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6122,14 +6155,14 @@
       <c r="G42" s="72"/>
       <c r="H42" s="75"/>
       <c r="I42" s="70"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="107"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="151"/>
       <c r="L42" s="73"/>
       <c r="M42" s="74"/>
-      <c r="N42" s="106"/>
-      <c r="O42" s="108"/>
-      <c r="P42" s="108"/>
-      <c r="Q42" s="107"/>
+      <c r="N42" s="150"/>
+      <c r="O42" s="152"/>
+      <c r="P42" s="152"/>
+      <c r="Q42" s="151"/>
       <c r="R42" s="76"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6142,14 +6175,14 @@
       <c r="G43" s="72"/>
       <c r="H43" s="75"/>
       <c r="I43" s="70"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="107"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="151"/>
       <c r="L43" s="73"/>
       <c r="M43" s="74"/>
-      <c r="N43" s="106"/>
-      <c r="O43" s="108"/>
-      <c r="P43" s="108"/>
-      <c r="Q43" s="107"/>
+      <c r="N43" s="150"/>
+      <c r="O43" s="152"/>
+      <c r="P43" s="152"/>
+      <c r="Q43" s="151"/>
       <c r="R43" s="76"/>
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6162,14 +6195,14 @@
       <c r="G44" s="72"/>
       <c r="H44" s="75"/>
       <c r="I44" s="70"/>
-      <c r="J44" s="106"/>
-      <c r="K44" s="107"/>
+      <c r="J44" s="150"/>
+      <c r="K44" s="151"/>
       <c r="L44" s="73"/>
       <c r="M44" s="74"/>
-      <c r="N44" s="106"/>
-      <c r="O44" s="108"/>
-      <c r="P44" s="108"/>
-      <c r="Q44" s="107"/>
+      <c r="N44" s="150"/>
+      <c r="O44" s="152"/>
+      <c r="P44" s="152"/>
+      <c r="Q44" s="151"/>
       <c r="R44" s="76"/>
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6182,14 +6215,14 @@
       <c r="G45" s="72"/>
       <c r="H45" s="75"/>
       <c r="I45" s="70"/>
-      <c r="J45" s="106"/>
-      <c r="K45" s="107"/>
+      <c r="J45" s="150"/>
+      <c r="K45" s="151"/>
       <c r="L45" s="73"/>
       <c r="M45" s="74"/>
-      <c r="N45" s="106"/>
-      <c r="O45" s="108"/>
-      <c r="P45" s="108"/>
-      <c r="Q45" s="107"/>
+      <c r="N45" s="150"/>
+      <c r="O45" s="152"/>
+      <c r="P45" s="152"/>
+      <c r="Q45" s="151"/>
       <c r="R45" s="76"/>
     </row>
     <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6202,14 +6235,14 @@
       <c r="G46" s="72"/>
       <c r="H46" s="75"/>
       <c r="I46" s="70"/>
-      <c r="J46" s="106"/>
-      <c r="K46" s="107"/>
+      <c r="J46" s="150"/>
+      <c r="K46" s="151"/>
       <c r="L46" s="73"/>
       <c r="M46" s="74"/>
-      <c r="N46" s="106"/>
-      <c r="O46" s="108"/>
-      <c r="P46" s="108"/>
-      <c r="Q46" s="107"/>
+      <c r="N46" s="150"/>
+      <c r="O46" s="152"/>
+      <c r="P46" s="152"/>
+      <c r="Q46" s="151"/>
       <c r="R46" s="76"/>
     </row>
     <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6222,14 +6255,14 @@
       <c r="G47" s="72"/>
       <c r="H47" s="75"/>
       <c r="I47" s="70"/>
-      <c r="J47" s="106"/>
-      <c r="K47" s="107"/>
+      <c r="J47" s="150"/>
+      <c r="K47" s="151"/>
       <c r="L47" s="73"/>
       <c r="M47" s="74"/>
-      <c r="N47" s="106"/>
-      <c r="O47" s="108"/>
-      <c r="P47" s="108"/>
-      <c r="Q47" s="107"/>
+      <c r="N47" s="150"/>
+      <c r="O47" s="152"/>
+      <c r="P47" s="152"/>
+      <c r="Q47" s="151"/>
       <c r="R47" s="76"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6242,14 +6275,14 @@
       <c r="G48" s="72"/>
       <c r="H48" s="75"/>
       <c r="I48" s="70"/>
-      <c r="J48" s="106"/>
-      <c r="K48" s="107"/>
+      <c r="J48" s="150"/>
+      <c r="K48" s="151"/>
       <c r="L48" s="73"/>
       <c r="M48" s="74"/>
-      <c r="N48" s="106"/>
-      <c r="O48" s="108"/>
-      <c r="P48" s="108"/>
-      <c r="Q48" s="107"/>
+      <c r="N48" s="150"/>
+      <c r="O48" s="152"/>
+      <c r="P48" s="152"/>
+      <c r="Q48" s="151"/>
       <c r="R48" s="76"/>
     </row>
     <row r="49" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6262,14 +6295,14 @@
       <c r="G49" s="72"/>
       <c r="H49" s="75"/>
       <c r="I49" s="70"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="107"/>
+      <c r="J49" s="150"/>
+      <c r="K49" s="151"/>
       <c r="L49" s="73"/>
       <c r="M49" s="74"/>
-      <c r="N49" s="106"/>
-      <c r="O49" s="108"/>
-      <c r="P49" s="108"/>
-      <c r="Q49" s="107"/>
+      <c r="N49" s="150"/>
+      <c r="O49" s="152"/>
+      <c r="P49" s="152"/>
+      <c r="Q49" s="151"/>
       <c r="R49" s="76"/>
     </row>
     <row r="50" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6282,14 +6315,14 @@
       <c r="G50" s="72"/>
       <c r="H50" s="75"/>
       <c r="I50" s="70"/>
-      <c r="J50" s="106"/>
-      <c r="K50" s="107"/>
+      <c r="J50" s="150"/>
+      <c r="K50" s="151"/>
       <c r="L50" s="73"/>
       <c r="M50" s="74"/>
-      <c r="N50" s="106"/>
-      <c r="O50" s="108"/>
-      <c r="P50" s="108"/>
-      <c r="Q50" s="107"/>
+      <c r="N50" s="150"/>
+      <c r="O50" s="152"/>
+      <c r="P50" s="152"/>
+      <c r="Q50" s="151"/>
       <c r="R50" s="76"/>
     </row>
     <row r="51" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6302,14 +6335,14 @@
       <c r="G51" s="72"/>
       <c r="H51" s="75"/>
       <c r="I51" s="70"/>
-      <c r="J51" s="106"/>
-      <c r="K51" s="107"/>
+      <c r="J51" s="150"/>
+      <c r="K51" s="151"/>
       <c r="L51" s="73"/>
       <c r="M51" s="74"/>
-      <c r="N51" s="106"/>
-      <c r="O51" s="108"/>
-      <c r="P51" s="108"/>
-      <c r="Q51" s="107"/>
+      <c r="N51" s="150"/>
+      <c r="O51" s="152"/>
+      <c r="P51" s="152"/>
+      <c r="Q51" s="151"/>
       <c r="R51" s="76"/>
     </row>
     <row r="52" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6322,14 +6355,14 @@
       <c r="G52" s="72"/>
       <c r="H52" s="75"/>
       <c r="I52" s="70"/>
-      <c r="J52" s="106"/>
-      <c r="K52" s="107"/>
+      <c r="J52" s="150"/>
+      <c r="K52" s="151"/>
       <c r="L52" s="73"/>
       <c r="M52" s="74"/>
-      <c r="N52" s="106"/>
-      <c r="O52" s="108"/>
-      <c r="P52" s="108"/>
-      <c r="Q52" s="107"/>
+      <c r="N52" s="150"/>
+      <c r="O52" s="152"/>
+      <c r="P52" s="152"/>
+      <c r="Q52" s="151"/>
       <c r="R52" s="76"/>
     </row>
     <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6342,44 +6375,136 @@
       <c r="G53" s="79"/>
       <c r="H53" s="82"/>
       <c r="I53" s="77"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="107"/>
+      <c r="J53" s="150"/>
+      <c r="K53" s="151"/>
       <c r="L53" s="80"/>
       <c r="M53" s="81"/>
-      <c r="N53" s="106"/>
-      <c r="O53" s="108"/>
-      <c r="P53" s="108"/>
-      <c r="Q53" s="107"/>
+      <c r="N53" s="150"/>
+      <c r="O53" s="152"/>
+      <c r="P53" s="152"/>
+      <c r="Q53" s="151"/>
       <c r="R53" s="76"/>
     </row>
     <row r="54" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="162" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="110"/>
-      <c r="C54" s="111">
+      <c r="B54" s="163"/>
+      <c r="C54" s="164">
         <v>0</v>
       </c>
-      <c r="D54" s="112"/>
-      <c r="E54" s="113" t="s">
+      <c r="D54" s="165"/>
+      <c r="E54" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="F54" s="114"/>
-      <c r="G54" s="114"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="114"/>
-      <c r="J54" s="114"/>
-      <c r="K54" s="114"/>
-      <c r="L54" s="114"/>
-      <c r="M54" s="114"/>
-      <c r="N54" s="114"/>
-      <c r="O54" s="114"/>
-      <c r="P54" s="114"/>
-      <c r="Q54" s="114"/>
-      <c r="R54" s="114"/>
+      <c r="F54" s="167"/>
+      <c r="G54" s="167"/>
+      <c r="H54" s="167"/>
+      <c r="I54" s="167"/>
+      <c r="J54" s="167"/>
+      <c r="K54" s="167"/>
+      <c r="L54" s="167"/>
+      <c r="M54" s="167"/>
+      <c r="N54" s="167"/>
+      <c r="O54" s="167"/>
+      <c r="P54" s="167"/>
+      <c r="Q54" s="167"/>
+      <c r="R54" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:R54"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="B36:R36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="I37:R37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="B30:R30"/>
+    <mergeCell ref="B31:R31"/>
+    <mergeCell ref="B33:R33"/>
+    <mergeCell ref="B34:R34"/>
+    <mergeCell ref="B35:R35"/>
+    <mergeCell ref="B32:R32"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="B27:R27"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B17:R17"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B15:R15"/>
+    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:R10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:R11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:L3"/>
     <mergeCell ref="M3:N3"/>
@@ -6396,98 +6521,6 @@
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:R2"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:R10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:R11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="B17:R17"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B15:R15"/>
-    <mergeCell ref="B16:R16"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="B30:R30"/>
-    <mergeCell ref="B31:R31"/>
-    <mergeCell ref="B33:R33"/>
-    <mergeCell ref="B34:R34"/>
-    <mergeCell ref="B35:R35"/>
-    <mergeCell ref="B32:R32"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B25:R25"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="B27:R27"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="B36:R36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="I37:R37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:R54"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="N51:Q51"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid options in the dropdown list." sqref="Q5">
@@ -6506,8 +6539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AM41"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6520,75 +6553,75 @@
   <sheetData>
     <row r="2" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="174" t="s">
+      <c r="D3" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="178" t="s">
+      <c r="E3" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="179"/>
-      <c r="G3" s="167" t="s">
+      <c r="F3" s="175"/>
+      <c r="G3" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="167" t="s">
+      <c r="H3" s="179"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="168"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="167" t="s">
+      <c r="K3" s="179"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="169"/>
+      <c r="N3" s="180"/>
       <c r="O3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="167" t="s">
+      <c r="Q3" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="168"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="167" t="s">
+      <c r="R3" s="179"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="168"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="167" t="s">
+      <c r="U3" s="179"/>
+      <c r="V3" s="180"/>
+      <c r="W3" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="170" t="s">
+      <c r="X3" s="179"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="170" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB3" s="174" t="s">
+      <c r="AA3" s="168" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB3" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="AC3" s="172" t="s">
+      <c r="AC3" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="AD3" s="173"/>
-      <c r="AE3" s="170" t="s">
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" s="170" t="s">
-        <v>86</v>
+      <c r="AF3" s="168" t="s">
+        <v>84</v>
       </c>
       <c r="AG3" s="97"/>
       <c r="AH3" s="97"/>
@@ -6599,26 +6632,26 @@
       <c r="AM3" s="97"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="175"/>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="181"/>
+      <c r="A4" s="173"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="177"/>
       <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="176" t="s">
+      <c r="H4" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="177"/>
+      <c r="I4" s="171"/>
       <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="176" t="s">
+      <c r="K4" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="177"/>
+      <c r="L4" s="171"/>
       <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
@@ -6643,28 +6676,28 @@
       <c r="T4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="176" t="s">
+      <c r="U4" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="177"/>
+      <c r="V4" s="171"/>
       <c r="W4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="176" t="s">
+      <c r="X4" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="177"/>
-      <c r="Z4" s="171"/>
-      <c r="AA4" s="171"/>
-      <c r="AB4" s="175"/>
+      <c r="Y4" s="171"/>
+      <c r="Z4" s="169"/>
+      <c r="AA4" s="169"/>
+      <c r="AB4" s="173"/>
       <c r="AC4" s="48" t="s">
         <v>27</v>
       </c>
       <c r="AD4" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="AE4" s="175"/>
-      <c r="AF4" s="171"/>
+      <c r="AE4" s="173"/>
+      <c r="AF4" s="169"/>
       <c r="AG4" s="97"/>
       <c r="AH4" s="97"/>
       <c r="AI4" s="97"/>
@@ -6892,7 +6925,7 @@
         <v>79</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C9" s="19">
         <v>1</v>
@@ -7004,8 +7037,12 @@
       <c r="AF10" s="29"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>87</v>
+      </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="E11" s="31"/>
@@ -7047,9 +7084,7 @@
       <c r="AM11" s="97"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>81</v>
-      </c>
+      <c r="A12" s="18"/>
       <c r="B12" s="25"/>
       <c r="C12" s="19"/>
       <c r="D12" s="18"/>
@@ -7092,15 +7127,31 @@
       <c r="AM12" s="97"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
+      <c r="C13" s="19">
+        <v>1</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="31">
+        <v>30</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <v>2</v>
+      </c>
+      <c r="H13" s="21">
+        <v>2</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0</v>
+      </c>
       <c r="J13" s="20"/>
       <c r="K13" s="21"/>
       <c r="L13" s="22"/>
@@ -7221,15 +7272,33 @@
       <c r="AM15" s="97"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
+      <c r="A16" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="19">
+        <v>1</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="31">
+        <v>30</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
+        <v>2</v>
+      </c>
+      <c r="H16" s="21">
+        <v>2</v>
+      </c>
+      <c r="I16" s="22">
+        <v>0</v>
+      </c>
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
       <c r="L16" s="22"/>
@@ -7307,9 +7376,7 @@
       <c r="AM17" s="97"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>82</v>
-      </c>
+      <c r="A18" s="18"/>
       <c r="B18" s="25"/>
       <c r="C18" s="19"/>
       <c r="D18" s="18"/>
@@ -7395,15 +7462,33 @@
       <c r="AM19" s="97"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="22"/>
+      <c r="A20" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="31">
+        <v>30</v>
+      </c>
+      <c r="F20" s="22">
+        <v>0</v>
+      </c>
+      <c r="G20" s="20">
+        <v>2</v>
+      </c>
+      <c r="H20" s="21">
+        <v>2</v>
+      </c>
+      <c r="I20" s="22">
+        <v>0</v>
+      </c>
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
@@ -7567,15 +7652,33 @@
       <c r="AM23" s="97"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
+      <c r="A24" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="31">
+        <v>30</v>
+      </c>
+      <c r="F24" s="22">
+        <v>0</v>
+      </c>
+      <c r="G24" s="20">
+        <v>2</v>
+      </c>
+      <c r="H24" s="21">
+        <v>2</v>
+      </c>
+      <c r="I24" s="22">
+        <v>0</v>
+      </c>
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
       <c r="L24" s="22"/>
@@ -7610,9 +7713,7 @@
       <c r="AM24" s="97"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>83</v>
-      </c>
+      <c r="A25" s="18"/>
       <c r="B25" s="25"/>
       <c r="C25" s="19"/>
       <c r="D25" s="18"/>
@@ -7655,15 +7756,33 @@
       <c r="AM25" s="97"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
+      <c r="A26" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="19">
+        <v>1</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="31">
+        <v>30</v>
+      </c>
+      <c r="F26" s="22">
+        <v>0</v>
+      </c>
+      <c r="G26" s="20">
+        <v>2</v>
+      </c>
+      <c r="H26" s="21">
+        <v>2</v>
+      </c>
+      <c r="I26" s="22">
+        <v>0</v>
+      </c>
       <c r="J26" s="20"/>
       <c r="K26" s="21"/>
       <c r="L26" s="22"/>
@@ -7827,15 +7946,33 @@
       <c r="AM29" s="97"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
+      <c r="A30" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="19">
+        <v>1</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="31">
+        <v>30</v>
+      </c>
+      <c r="F30" s="22">
+        <v>0</v>
+      </c>
+      <c r="G30" s="20">
+        <v>2</v>
+      </c>
+      <c r="H30" s="21">
+        <v>2</v>
+      </c>
+      <c r="I30" s="22">
+        <v>0</v>
+      </c>
       <c r="J30" s="20"/>
       <c r="K30" s="21"/>
       <c r="L30" s="22"/>
@@ -7913,15 +8050,33 @@
       <c r="AM31" s="97"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22"/>
+      <c r="A32" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="19">
+        <v>1</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="31">
+        <v>30</v>
+      </c>
+      <c r="F32" s="22">
+        <v>0</v>
+      </c>
+      <c r="G32" s="20">
+        <v>2</v>
+      </c>
+      <c r="H32" s="21">
+        <v>2</v>
+      </c>
+      <c r="I32" s="22">
+        <v>0</v>
+      </c>
       <c r="J32" s="20"/>
       <c r="K32" s="21"/>
       <c r="L32" s="22"/>
@@ -7956,9 +8111,7 @@
       <c r="AM32" s="97"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>84</v>
-      </c>
+      <c r="A33" s="18"/>
       <c r="B33" s="25"/>
       <c r="C33" s="19"/>
       <c r="D33" s="18"/>
@@ -8087,15 +8240,33 @@
       <c r="AM35" s="97"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="22"/>
+      <c r="A36" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="19">
+        <v>1</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="31">
+        <v>30</v>
+      </c>
+      <c r="F36" s="22">
+        <v>0</v>
+      </c>
+      <c r="G36" s="20">
+        <v>2</v>
+      </c>
+      <c r="H36" s="21">
+        <v>2</v>
+      </c>
+      <c r="I36" s="22">
+        <v>0</v>
+      </c>
       <c r="J36" s="20"/>
       <c r="K36" s="21"/>
       <c r="L36" s="22"/>
@@ -8216,15 +8387,33 @@
       <c r="AM38" s="97"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="22"/>
+      <c r="A39" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="19">
+        <v>1</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="31">
+        <v>30</v>
+      </c>
+      <c r="F39" s="22">
+        <v>0</v>
+      </c>
+      <c r="G39" s="20">
+        <v>2</v>
+      </c>
+      <c r="H39" s="21">
+        <v>2</v>
+      </c>
+      <c r="I39" s="22">
+        <v>0</v>
+      </c>
       <c r="J39" s="20"/>
       <c r="K39" s="21"/>
       <c r="L39" s="22"/>
@@ -8346,6 +8535,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AF3:AF4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="X4:Y4"/>
@@ -8362,11 +8556,6 @@
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AA3:AA4"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Bad Input" error="Input for this cell must be one of the listed positions and all uppercase!" sqref="S5:S41">
@@ -8394,8 +8583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8497,93 +8686,93 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="167" t="s">
+      <c r="D2" s="175"/>
+      <c r="E2" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="167" t="s">
+      <c r="F2" s="179"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="168"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="167" t="s">
+      <c r="I2" s="179"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="169"/>
+      <c r="L2" s="180"/>
       <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="167" t="s">
+      <c r="O2" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="167" t="s">
+      <c r="P2" s="179"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="168"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="167" t="s">
+      <c r="S2" s="179"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="168"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="170" t="s">
+      <c r="V2" s="179"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="170" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z2" s="174" t="s">
+      <c r="Y2" s="168" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="172" t="s">
+      <c r="AA2" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="170" t="s">
+      <c r="AB2" s="182"/>
+      <c r="AC2" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="AD2" s="172" t="s">
+      <c r="AD2" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="191"/>
-      <c r="AF2" s="191"/>
-      <c r="AG2" s="173"/>
+      <c r="AE2" s="189"/>
+      <c r="AF2" s="189"/>
+      <c r="AG2" s="182"/>
     </row>
     <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="175"/>
-      <c r="B3" s="175"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="181"/>
+      <c r="A3" s="173"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="177"/>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="176" t="s">
+      <c r="F3" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="177"/>
+      <c r="G3" s="171"/>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="176" t="s">
+      <c r="I3" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="177"/>
+      <c r="J3" s="171"/>
       <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
@@ -8608,31 +8797,31 @@
       <c r="R3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="176" t="s">
+      <c r="S3" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="177"/>
+      <c r="T3" s="171"/>
       <c r="U3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="176" t="s">
+      <c r="V3" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="177"/>
-      <c r="X3" s="171"/>
-      <c r="Y3" s="171"/>
-      <c r="Z3" s="175"/>
+      <c r="W3" s="171"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="173"/>
       <c r="AA3" s="48" t="s">
         <v>27</v>
       </c>
       <c r="AB3" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="AC3" s="175"/>
-      <c r="AD3" s="192"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="193"/>
-      <c r="AG3" s="194"/>
+      <c r="AC3" s="173"/>
+      <c r="AD3" s="190"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="191"/>
+      <c r="AG3" s="192"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
@@ -8659,17 +8848,17 @@
       <c r="V4" s="15"/>
       <c r="W4" s="16"/>
       <c r="X4" s="17"/>
-      <c r="Y4" s="195"/>
+      <c r="Y4" s="106"/>
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
       <c r="AB4" s="12"/>
       <c r="AC4" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="188"/>
-      <c r="AE4" s="189"/>
-      <c r="AF4" s="189"/>
-      <c r="AG4" s="190"/>
+      <c r="AD4" s="186"/>
+      <c r="AE4" s="187"/>
+      <c r="AF4" s="187"/>
+      <c r="AG4" s="188"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -8698,7 +8887,7 @@
         <v>76</v>
       </c>
       <c r="R5" s="28">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="S5" s="21"/>
       <c r="T5" s="22"/>
@@ -8711,10 +8900,10 @@
       <c r="AA5" s="25"/>
       <c r="AB5" s="26"/>
       <c r="AC5" s="25"/>
-      <c r="AD5" s="185"/>
-      <c r="AE5" s="186"/>
-      <c r="AF5" s="186"/>
-      <c r="AG5" s="187"/>
+      <c r="AD5" s="183"/>
+      <c r="AE5" s="184"/>
+      <c r="AF5" s="184"/>
+      <c r="AG5" s="185"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
@@ -8746,14 +8935,14 @@
       <c r="AA6" s="25"/>
       <c r="AB6" s="26"/>
       <c r="AC6" s="25"/>
-      <c r="AD6" s="185"/>
-      <c r="AE6" s="186"/>
-      <c r="AF6" s="186"/>
-      <c r="AG6" s="187"/>
+      <c r="AD6" s="183"/>
+      <c r="AE6" s="184"/>
+      <c r="AF6" s="184"/>
+      <c r="AG6" s="185"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="31"/>
@@ -8772,13 +8961,13 @@
         <v>74</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="43" t="s">
         <v>76</v>
       </c>
       <c r="R7" s="28">
-        <v>500</v>
+        <v>930</v>
       </c>
       <c r="S7" s="21"/>
       <c r="T7" s="22"/>
@@ -8791,10 +8980,10 @@
       <c r="AA7" s="25"/>
       <c r="AB7" s="26"/>
       <c r="AC7" s="25"/>
-      <c r="AD7" s="185"/>
-      <c r="AE7" s="186"/>
-      <c r="AF7" s="186"/>
-      <c r="AG7" s="187"/>
+      <c r="AD7" s="183"/>
+      <c r="AE7" s="184"/>
+      <c r="AF7" s="184"/>
+      <c r="AG7" s="185"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
@@ -8811,10 +9000,18 @@
       <c r="L8" s="24"/>
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="28"/>
+      <c r="O8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" s="28">
+        <v>20</v>
+      </c>
       <c r="S8" s="21"/>
       <c r="T8" s="22"/>
       <c r="U8" s="28"/>
@@ -8826,10 +9023,10 @@
       <c r="AA8" s="25"/>
       <c r="AB8" s="26"/>
       <c r="AC8" s="25"/>
-      <c r="AD8" s="185"/>
-      <c r="AE8" s="186"/>
-      <c r="AF8" s="186"/>
-      <c r="AG8" s="187"/>
+      <c r="AD8" s="183"/>
+      <c r="AE8" s="184"/>
+      <c r="AF8" s="184"/>
+      <c r="AG8" s="185"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
@@ -8861,10 +9058,10 @@
       <c r="AA9" s="25"/>
       <c r="AB9" s="26"/>
       <c r="AC9" s="25"/>
-      <c r="AD9" s="185"/>
-      <c r="AE9" s="186"/>
-      <c r="AF9" s="186"/>
-      <c r="AG9" s="187"/>
+      <c r="AD9" s="183"/>
+      <c r="AE9" s="184"/>
+      <c r="AF9" s="184"/>
+      <c r="AG9" s="185"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
@@ -8896,16 +9093,24 @@
       <c r="AA10" s="25"/>
       <c r="AB10" s="26"/>
       <c r="AC10" s="25"/>
-      <c r="AD10" s="185"/>
-      <c r="AE10" s="186"/>
-      <c r="AF10" s="186"/>
-      <c r="AG10" s="187"/>
+      <c r="AD10" s="183"/>
+      <c r="AE10" s="184"/>
+      <c r="AF10" s="184"/>
+      <c r="AG10" s="185"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="22"/>
+      <c r="A11" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="31">
+        <v>40</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0</v>
+      </c>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
@@ -8931,10 +9136,10 @@
       <c r="AA11" s="25"/>
       <c r="AB11" s="26"/>
       <c r="AC11" s="25"/>
-      <c r="AD11" s="185"/>
-      <c r="AE11" s="186"/>
-      <c r="AF11" s="186"/>
-      <c r="AG11" s="187"/>
+      <c r="AD11" s="183"/>
+      <c r="AE11" s="184"/>
+      <c r="AF11" s="184"/>
+      <c r="AG11" s="185"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
@@ -8966,10 +9171,10 @@
       <c r="AA12" s="25"/>
       <c r="AB12" s="26"/>
       <c r="AC12" s="25"/>
-      <c r="AD12" s="185"/>
-      <c r="AE12" s="186"/>
-      <c r="AF12" s="186"/>
-      <c r="AG12" s="187"/>
+      <c r="AD12" s="183"/>
+      <c r="AE12" s="184"/>
+      <c r="AF12" s="184"/>
+      <c r="AG12" s="185"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
@@ -9001,13 +9206,15 @@
       <c r="AA13" s="25"/>
       <c r="AB13" s="26"/>
       <c r="AC13" s="25"/>
-      <c r="AD13" s="185"/>
-      <c r="AE13" s="186"/>
-      <c r="AF13" s="186"/>
-      <c r="AG13" s="187"/>
+      <c r="AD13" s="183"/>
+      <c r="AE13" s="184"/>
+      <c r="AF13" s="184"/>
+      <c r="AG13" s="185"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="B14" s="18"/>
       <c r="C14" s="31"/>
       <c r="D14" s="22"/>
@@ -9021,10 +9228,18 @@
       <c r="L14" s="24"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="28"/>
+      <c r="O14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q14" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" s="28">
+        <v>20</v>
+      </c>
       <c r="S14" s="21"/>
       <c r="T14" s="22"/>
       <c r="U14" s="28"/>
@@ -9036,10 +9251,10 @@
       <c r="AA14" s="25"/>
       <c r="AB14" s="26"/>
       <c r="AC14" s="25"/>
-      <c r="AD14" s="185"/>
-      <c r="AE14" s="186"/>
-      <c r="AF14" s="186"/>
-      <c r="AG14" s="187"/>
+      <c r="AD14" s="183"/>
+      <c r="AE14" s="184"/>
+      <c r="AF14" s="184"/>
+      <c r="AG14" s="185"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
@@ -9071,10 +9286,10 @@
       <c r="AA15" s="25"/>
       <c r="AB15" s="26"/>
       <c r="AC15" s="25"/>
-      <c r="AD15" s="185"/>
-      <c r="AE15" s="186"/>
-      <c r="AF15" s="186"/>
-      <c r="AG15" s="187"/>
+      <c r="AD15" s="183"/>
+      <c r="AE15" s="184"/>
+      <c r="AF15" s="184"/>
+      <c r="AG15" s="185"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
@@ -9106,10 +9321,10 @@
       <c r="AA16" s="25"/>
       <c r="AB16" s="26"/>
       <c r="AC16" s="25"/>
-      <c r="AD16" s="185"/>
-      <c r="AE16" s="186"/>
-      <c r="AF16" s="186"/>
-      <c r="AG16" s="187"/>
+      <c r="AD16" s="183"/>
+      <c r="AE16" s="184"/>
+      <c r="AF16" s="184"/>
+      <c r="AG16" s="185"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
@@ -9141,10 +9356,10 @@
       <c r="AA17" s="25"/>
       <c r="AB17" s="26"/>
       <c r="AC17" s="25"/>
-      <c r="AD17" s="185"/>
-      <c r="AE17" s="186"/>
-      <c r="AF17" s="186"/>
-      <c r="AG17" s="187"/>
+      <c r="AD17" s="183"/>
+      <c r="AE17" s="184"/>
+      <c r="AF17" s="184"/>
+      <c r="AG17" s="185"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
@@ -9176,10 +9391,10 @@
       <c r="AA18" s="25"/>
       <c r="AB18" s="26"/>
       <c r="AC18" s="25"/>
-      <c r="AD18" s="185"/>
-      <c r="AE18" s="186"/>
-      <c r="AF18" s="186"/>
-      <c r="AG18" s="187"/>
+      <c r="AD18" s="183"/>
+      <c r="AE18" s="184"/>
+      <c r="AF18" s="184"/>
+      <c r="AG18" s="185"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
@@ -9211,10 +9426,10 @@
       <c r="AA19" s="25"/>
       <c r="AB19" s="26"/>
       <c r="AC19" s="25"/>
-      <c r="AD19" s="185"/>
-      <c r="AE19" s="186"/>
-      <c r="AF19" s="186"/>
-      <c r="AG19" s="187"/>
+      <c r="AD19" s="183"/>
+      <c r="AE19" s="184"/>
+      <c r="AF19" s="184"/>
+      <c r="AG19" s="185"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
@@ -9246,10 +9461,10 @@
       <c r="AA20" s="25"/>
       <c r="AB20" s="26"/>
       <c r="AC20" s="25"/>
-      <c r="AD20" s="185"/>
-      <c r="AE20" s="186"/>
-      <c r="AF20" s="186"/>
-      <c r="AG20" s="187"/>
+      <c r="AD20" s="183"/>
+      <c r="AE20" s="184"/>
+      <c r="AF20" s="184"/>
+      <c r="AG20" s="185"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
@@ -9281,10 +9496,10 @@
       <c r="AA21" s="25"/>
       <c r="AB21" s="26"/>
       <c r="AC21" s="25"/>
-      <c r="AD21" s="185"/>
-      <c r="AE21" s="186"/>
-      <c r="AF21" s="186"/>
-      <c r="AG21" s="187"/>
+      <c r="AD21" s="183"/>
+      <c r="AE21" s="184"/>
+      <c r="AF21" s="184"/>
+      <c r="AG21" s="185"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
@@ -9316,10 +9531,10 @@
       <c r="AA22" s="25"/>
       <c r="AB22" s="26"/>
       <c r="AC22" s="25"/>
-      <c r="AD22" s="185"/>
-      <c r="AE22" s="186"/>
-      <c r="AF22" s="186"/>
-      <c r="AG22" s="187"/>
+      <c r="AD22" s="183"/>
+      <c r="AE22" s="184"/>
+      <c r="AF22" s="184"/>
+      <c r="AG22" s="185"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
@@ -9351,10 +9566,10 @@
       <c r="AA23" s="25"/>
       <c r="AB23" s="26"/>
       <c r="AC23" s="25"/>
-      <c r="AD23" s="185"/>
-      <c r="AE23" s="186"/>
-      <c r="AF23" s="186"/>
-      <c r="AG23" s="187"/>
+      <c r="AD23" s="183"/>
+      <c r="AE23" s="184"/>
+      <c r="AF23" s="184"/>
+      <c r="AG23" s="185"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
@@ -9386,10 +9601,10 @@
       <c r="AA24" s="25"/>
       <c r="AB24" s="26"/>
       <c r="AC24" s="25"/>
-      <c r="AD24" s="185"/>
-      <c r="AE24" s="186"/>
-      <c r="AF24" s="186"/>
-      <c r="AG24" s="187"/>
+      <c r="AD24" s="183"/>
+      <c r="AE24" s="184"/>
+      <c r="AF24" s="184"/>
+      <c r="AG24" s="185"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
@@ -9421,10 +9636,10 @@
       <c r="AA25" s="25"/>
       <c r="AB25" s="26"/>
       <c r="AC25" s="25"/>
-      <c r="AD25" s="185"/>
-      <c r="AE25" s="186"/>
-      <c r="AF25" s="186"/>
-      <c r="AG25" s="187"/>
+      <c r="AD25" s="183"/>
+      <c r="AE25" s="184"/>
+      <c r="AF25" s="184"/>
+      <c r="AG25" s="185"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
@@ -9456,10 +9671,10 @@
       <c r="AA26" s="25"/>
       <c r="AB26" s="26"/>
       <c r="AC26" s="25"/>
-      <c r="AD26" s="185"/>
-      <c r="AE26" s="186"/>
-      <c r="AF26" s="186"/>
-      <c r="AG26" s="187"/>
+      <c r="AD26" s="183"/>
+      <c r="AE26" s="184"/>
+      <c r="AF26" s="184"/>
+      <c r="AG26" s="185"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
@@ -9491,10 +9706,10 @@
       <c r="AA27" s="25"/>
       <c r="AB27" s="26"/>
       <c r="AC27" s="25"/>
-      <c r="AD27" s="185"/>
-      <c r="AE27" s="186"/>
-      <c r="AF27" s="186"/>
-      <c r="AG27" s="187"/>
+      <c r="AD27" s="183"/>
+      <c r="AE27" s="184"/>
+      <c r="AF27" s="184"/>
+      <c r="AG27" s="185"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
@@ -9526,10 +9741,10 @@
       <c r="AA28" s="25"/>
       <c r="AB28" s="26"/>
       <c r="AC28" s="25"/>
-      <c r="AD28" s="185"/>
-      <c r="AE28" s="186"/>
-      <c r="AF28" s="186"/>
-      <c r="AG28" s="187"/>
+      <c r="AD28" s="183"/>
+      <c r="AE28" s="184"/>
+      <c r="AF28" s="184"/>
+      <c r="AG28" s="185"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
@@ -9561,10 +9776,10 @@
       <c r="AA29" s="25"/>
       <c r="AB29" s="26"/>
       <c r="AC29" s="25"/>
-      <c r="AD29" s="185"/>
-      <c r="AE29" s="186"/>
-      <c r="AF29" s="186"/>
-      <c r="AG29" s="187"/>
+      <c r="AD29" s="183"/>
+      <c r="AE29" s="184"/>
+      <c r="AF29" s="184"/>
+      <c r="AG29" s="185"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
@@ -9596,10 +9811,10 @@
       <c r="AA30" s="25"/>
       <c r="AB30" s="26"/>
       <c r="AC30" s="25"/>
-      <c r="AD30" s="185"/>
-      <c r="AE30" s="186"/>
-      <c r="AF30" s="186"/>
-      <c r="AG30" s="187"/>
+      <c r="AD30" s="183"/>
+      <c r="AE30" s="184"/>
+      <c r="AF30" s="184"/>
+      <c r="AG30" s="185"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
@@ -9631,10 +9846,10 @@
       <c r="AA31" s="25"/>
       <c r="AB31" s="26"/>
       <c r="AC31" s="25"/>
-      <c r="AD31" s="185"/>
-      <c r="AE31" s="186"/>
-      <c r="AF31" s="186"/>
-      <c r="AG31" s="187"/>
+      <c r="AD31" s="183"/>
+      <c r="AE31" s="184"/>
+      <c r="AF31" s="184"/>
+      <c r="AG31" s="185"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
@@ -9666,10 +9881,10 @@
       <c r="AA32" s="25"/>
       <c r="AB32" s="26"/>
       <c r="AC32" s="25"/>
-      <c r="AD32" s="185"/>
-      <c r="AE32" s="186"/>
-      <c r="AF32" s="186"/>
-      <c r="AG32" s="187"/>
+      <c r="AD32" s="183"/>
+      <c r="AE32" s="184"/>
+      <c r="AF32" s="184"/>
+      <c r="AG32" s="185"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
@@ -9701,10 +9916,10 @@
       <c r="AA33" s="25"/>
       <c r="AB33" s="26"/>
       <c r="AC33" s="25"/>
-      <c r="AD33" s="185"/>
-      <c r="AE33" s="186"/>
-      <c r="AF33" s="186"/>
-      <c r="AG33" s="187"/>
+      <c r="AD33" s="183"/>
+      <c r="AE33" s="184"/>
+      <c r="AF33" s="184"/>
+      <c r="AG33" s="185"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
@@ -9736,10 +9951,10 @@
       <c r="AA34" s="25"/>
       <c r="AB34" s="26"/>
       <c r="AC34" s="25"/>
-      <c r="AD34" s="185"/>
-      <c r="AE34" s="186"/>
-      <c r="AF34" s="186"/>
-      <c r="AG34" s="187"/>
+      <c r="AD34" s="183"/>
+      <c r="AE34" s="184"/>
+      <c r="AF34" s="184"/>
+      <c r="AG34" s="185"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
@@ -9771,10 +9986,10 @@
       <c r="AA35" s="25"/>
       <c r="AB35" s="26"/>
       <c r="AC35" s="25"/>
-      <c r="AD35" s="185"/>
-      <c r="AE35" s="186"/>
-      <c r="AF35" s="186"/>
-      <c r="AG35" s="187"/>
+      <c r="AD35" s="183"/>
+      <c r="AE35" s="184"/>
+      <c r="AF35" s="184"/>
+      <c r="AG35" s="185"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
@@ -9806,10 +10021,10 @@
       <c r="AA36" s="25"/>
       <c r="AB36" s="26"/>
       <c r="AC36" s="25"/>
-      <c r="AD36" s="185"/>
-      <c r="AE36" s="186"/>
-      <c r="AF36" s="186"/>
-      <c r="AG36" s="187"/>
+      <c r="AD36" s="183"/>
+      <c r="AE36" s="184"/>
+      <c r="AF36" s="184"/>
+      <c r="AG36" s="185"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
@@ -9841,10 +10056,10 @@
       <c r="AA37" s="25"/>
       <c r="AB37" s="26"/>
       <c r="AC37" s="25"/>
-      <c r="AD37" s="185"/>
-      <c r="AE37" s="186"/>
-      <c r="AF37" s="186"/>
-      <c r="AG37" s="187"/>
+      <c r="AD37" s="183"/>
+      <c r="AE37" s="184"/>
+      <c r="AF37" s="184"/>
+      <c r="AG37" s="185"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
@@ -9876,10 +10091,10 @@
       <c r="AA38" s="25"/>
       <c r="AB38" s="26"/>
       <c r="AC38" s="25"/>
-      <c r="AD38" s="185"/>
-      <c r="AE38" s="186"/>
-      <c r="AF38" s="186"/>
-      <c r="AG38" s="187"/>
+      <c r="AD38" s="183"/>
+      <c r="AE38" s="184"/>
+      <c r="AF38" s="184"/>
+      <c r="AG38" s="185"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
@@ -9911,10 +10126,10 @@
       <c r="AA39" s="25"/>
       <c r="AB39" s="26"/>
       <c r="AC39" s="25"/>
-      <c r="AD39" s="185"/>
-      <c r="AE39" s="186"/>
-      <c r="AF39" s="186"/>
-      <c r="AG39" s="187"/>
+      <c r="AD39" s="183"/>
+      <c r="AE39" s="184"/>
+      <c r="AF39" s="184"/>
+      <c r="AG39" s="185"/>
     </row>
     <row r="40" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="52"/>
@@ -9946,35 +10161,32 @@
       <c r="AA40" s="38"/>
       <c r="AB40" s="39"/>
       <c r="AC40" s="38"/>
-      <c r="AD40" s="182"/>
-      <c r="AE40" s="183"/>
-      <c r="AF40" s="183"/>
-      <c r="AG40" s="184"/>
+      <c r="AD40" s="193"/>
+      <c r="AE40" s="194"/>
+      <c r="AF40" s="194"/>
+      <c r="AG40" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AG3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="AD40:AG40"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AD35:AG35"/>
+    <mergeCell ref="AD36:AG36"/>
+    <mergeCell ref="AD37:AG37"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="AD39:AG39"/>
+    <mergeCell ref="AD33:AG33"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="AD26:AG26"/>
+    <mergeCell ref="AD27:AG27"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AD31:AG31"/>
+    <mergeCell ref="AD32:AG32"/>
     <mergeCell ref="AD7:AG7"/>
     <mergeCell ref="AD8:AG8"/>
     <mergeCell ref="AD21:AG21"/>
@@ -9990,25 +10202,28 @@
     <mergeCell ref="AD19:AG19"/>
     <mergeCell ref="AD20:AG20"/>
     <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD33:AG33"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AD25:AG25"/>
-    <mergeCell ref="AD26:AG26"/>
-    <mergeCell ref="AD27:AG27"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AD31:AG31"/>
-    <mergeCell ref="AD32:AG32"/>
-    <mergeCell ref="AD40:AG40"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AD35:AG35"/>
-    <mergeCell ref="AD36:AG36"/>
-    <mergeCell ref="AD37:AG37"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="AD39:AG39"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AG3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Bad Input" error="Input for this cell must be one of the listed types and all uppercase!" sqref="O4:O40">

--- a/TAKEOFF CONCEPT.xlsx
+++ b/TAKEOFF CONCEPT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="27795" windowHeight="13545" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="27795" windowHeight="13545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Bridging" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2860,7 +2861,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
   <si>
     <t>MK</t>
   </si>
@@ -3203,28 +3204,13 @@
     <t>5</t>
   </si>
   <si>
-    <t>6</t>
+    <t>DL</t>
   </si>
   <si>
-    <t>7</t>
+    <t>22LH11</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>DL</t>
+    <t>48G8N12K1</t>
   </si>
 </sst>
 </file>
@@ -6539,8 +6525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AM41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K39" sqref="A20:K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6832,7 +6818,9 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="25"/>
+      <c r="B7" s="25" t="s">
+        <v>86</v>
+      </c>
       <c r="C7" s="19"/>
       <c r="D7" s="18"/>
       <c r="E7" s="31"/>
@@ -7135,7 +7123,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E13" s="31">
         <v>30</v>
@@ -7282,7 +7270,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E16" s="31">
         <v>30</v>
@@ -7462,33 +7450,15 @@
       <c r="AM19" s="97"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="19">
-        <v>1</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="31">
-        <v>30</v>
-      </c>
-      <c r="F20" s="22">
-        <v>0</v>
-      </c>
-      <c r="G20" s="20">
-        <v>2</v>
-      </c>
-      <c r="H20" s="21">
-        <v>2</v>
-      </c>
-      <c r="I20" s="22">
-        <v>0</v>
-      </c>
+      <c r="A20" s="18"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
@@ -7652,33 +7622,15 @@
       <c r="AM23" s="97"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="19">
-        <v>1</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="31">
-        <v>30</v>
-      </c>
-      <c r="F24" s="22">
-        <v>0</v>
-      </c>
-      <c r="G24" s="20">
-        <v>2</v>
-      </c>
-      <c r="H24" s="21">
-        <v>2</v>
-      </c>
-      <c r="I24" s="22">
-        <v>0</v>
-      </c>
+      <c r="A24" s="18"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
       <c r="L24" s="22"/>
@@ -7756,33 +7708,15 @@
       <c r="AM25" s="97"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="19">
-        <v>1</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="31">
-        <v>30</v>
-      </c>
-      <c r="F26" s="22">
-        <v>0</v>
-      </c>
-      <c r="G26" s="20">
-        <v>2</v>
-      </c>
-      <c r="H26" s="21">
-        <v>2</v>
-      </c>
-      <c r="I26" s="22">
-        <v>0</v>
-      </c>
+      <c r="A26" s="18"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="20"/>
       <c r="K26" s="21"/>
       <c r="L26" s="22"/>
@@ -7946,33 +7880,15 @@
       <c r="AM29" s="97"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="19">
-        <v>1</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="31">
-        <v>30</v>
-      </c>
-      <c r="F30" s="22">
-        <v>0</v>
-      </c>
-      <c r="G30" s="20">
-        <v>2</v>
-      </c>
-      <c r="H30" s="21">
-        <v>2</v>
-      </c>
-      <c r="I30" s="22">
-        <v>0</v>
-      </c>
+      <c r="A30" s="18"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="20"/>
       <c r="K30" s="21"/>
       <c r="L30" s="22"/>
@@ -8050,33 +7966,15 @@
       <c r="AM31" s="97"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="19">
-        <v>1</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="31">
-        <v>30</v>
-      </c>
-      <c r="F32" s="22">
-        <v>0</v>
-      </c>
-      <c r="G32" s="20">
-        <v>2</v>
-      </c>
-      <c r="H32" s="21">
-        <v>2</v>
-      </c>
-      <c r="I32" s="22">
-        <v>0</v>
-      </c>
+      <c r="A32" s="18"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="22"/>
       <c r="J32" s="20"/>
       <c r="K32" s="21"/>
       <c r="L32" s="22"/>
@@ -8240,33 +8138,15 @@
       <c r="AM35" s="97"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="19">
-        <v>1</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="31">
-        <v>30</v>
-      </c>
-      <c r="F36" s="22">
-        <v>0</v>
-      </c>
-      <c r="G36" s="20">
-        <v>2</v>
-      </c>
-      <c r="H36" s="21">
-        <v>2</v>
-      </c>
-      <c r="I36" s="22">
-        <v>0</v>
-      </c>
+      <c r="A36" s="18"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="22"/>
       <c r="J36" s="20"/>
       <c r="K36" s="21"/>
       <c r="L36" s="22"/>
@@ -8387,33 +8267,15 @@
       <c r="AM38" s="97"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="19">
-        <v>1</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="31">
-        <v>30</v>
-      </c>
-      <c r="F39" s="22">
-        <v>0</v>
-      </c>
-      <c r="G39" s="20">
-        <v>2</v>
-      </c>
-      <c r="H39" s="21">
-        <v>2</v>
-      </c>
-      <c r="I39" s="22">
-        <v>0</v>
-      </c>
+      <c r="A39" s="18"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="22"/>
       <c r="J39" s="20"/>
       <c r="K39" s="21"/>
       <c r="L39" s="22"/>
@@ -8583,7 +8445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -9232,7 +9094,7 @@
         <v>77</v>
       </c>
       <c r="P14" s="27" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="43" t="s">
         <v>76</v>

--- a/TAKEOFF CONCEPT.xlsx
+++ b/TAKEOFF CONCEPT.xlsx
@@ -4,16 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="27795" windowHeight="13545" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="27795" windowHeight="13545" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
     <sheet name="Marks" sheetId="1" r:id="rId2"/>
     <sheet name="Base Types" sheetId="2" r:id="rId3"/>
-    <sheet name="Bridging" sheetId="4" r:id="rId4"/>
+    <sheet name="Bridging" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="B (1)" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'B (1)'!$A$1:$M$50</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2860,8 +2866,96 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mike Camperman</author>
+  </authors>
+  <commentList>
+    <comment ref="F25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>This total is calculated with an additional 2% and rounded up to the nearest 10' length.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>This total is calculated with an additional 2% and rounded up to the nearest 10' length.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>This total is calculated with an additional 2% and rounded up to the nearest 10' length.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>This total is calculated with an additional 2% and rounded up to the nearest 10' length.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>This total is calculated by taking (PCS x LGTH x 50%) + 2% and rounded up to the nearest 10' length.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>This total is calculated by taking (PCS x LGTH x 50%) + 2% and rounded up to the nearest 10' length.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="103">
   <si>
     <t>MK</t>
   </si>
@@ -3147,9 +3241,6 @@
     <t>OFFICE</t>
   </si>
   <si>
-    <t>20LH200/100</t>
-  </si>
-  <si>
     <t>CP</t>
   </si>
   <si>
@@ -3162,19 +3253,7 @@
     <t>U</t>
   </si>
   <si>
-    <t>LE</t>
-  </si>
-  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>22LH200/100</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>LOAD NOTE</t>
@@ -3201,16 +3280,75 @@
     <t>32LH300/150</t>
   </si>
   <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>48G8N12.5/5.6K1</t>
+  </si>
+  <si>
+    <t>48G8N12.5/5.6K</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>48G8N12.5K6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>32LH360/200</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>DL</t>
+    <t>32LH6</t>
   </si>
   <si>
-    <t>22LH11</t>
+    <t>HI</t>
   </si>
   <si>
-    <t>48G8N12K1</t>
+    <r>
+      <t>JOB NAME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>DATE:</t>
+  </si>
+  <si>
+    <r>
+      <t>LOCATION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>KB'S</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t>SPLICE</t>
   </si>
 </sst>
 </file>
@@ -3224,7 +3362,7 @@
     <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="167" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3391,8 +3529,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color indexed="17"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3405,8 +3562,29 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp"/>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -4162,12 +4340,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -4568,17 +4841,212 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="6"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -4594,204 +5062,39 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="16" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="6"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4813,11 +5116,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4831,6 +5140,18 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -4855,22 +5176,191 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="58" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="22" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="22" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="22" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="5" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="53" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="5" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="5" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="5" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="63" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="6" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="26" fillId="0" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4880,6 +5370,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="N (0)"/>
+      <sheetName val="J (0)"/>
+      <sheetName val="B (0)"/>
+      <sheetName val="D (0)"/>
+      <sheetName val="A (0)"/>
+      <sheetName val="Cover"/>
+      <sheetName val="J (1)"/>
+      <sheetName val="B (1)"/>
+      <sheetName val="Check List"/>
+      <sheetName val="J(BLANK)"/>
+      <sheetName val="HighlightedCell"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="O2" t="str">
+            <v>*</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="D3" t="str">
+            <v>*</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4" t="str">
+            <v>*</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="Q7">
+            <v>3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5178,82 +5722,82 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="114" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="153" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
       <c r="H2" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="108" t="s">
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="108"/>
-      <c r="O2" s="120" t="s">
+      <c r="N2" s="143"/>
+      <c r="O2" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="121"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="173"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="109" t="s">
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="108" t="s">
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="108"/>
-      <c r="O3" s="110" t="s">
+      <c r="N3" s="143"/>
+      <c r="O3" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="110"/>
+      <c r="P3" s="165"/>
       <c r="Q3" s="57" t="s">
         <v>39</v>
       </c>
@@ -5262,102 +5806,102 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="109" t="s">
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="108" t="s">
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="108"/>
-      <c r="O4" s="109" t="s">
+      <c r="N4" s="143"/>
+      <c r="O4" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="111"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="167"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="109" t="s">
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="108" t="s">
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="126" t="s">
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="127"/>
+      <c r="R5" s="145"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="128"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="108" t="s">
+      <c r="A6" s="161"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="160"/>
+      <c r="M6" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="110" t="s">
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="132"/>
+      <c r="R6" s="166"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="130"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="108" t="s">
+      <c r="A7" s="163"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="160"/>
+      <c r="M7" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="108"/>
+      <c r="N7" s="143"/>
       <c r="O7" s="59">
         <v>1</v>
       </c>
@@ -5370,644 +5914,644 @@
       <c r="R7" s="61"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="120" t="s">
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="122" t="s">
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="118" t="s">
+      <c r="H8" s="154"/>
+      <c r="I8" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="118"/>
-      <c r="K8" s="122" t="s">
+      <c r="J8" s="156"/>
+      <c r="K8" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="122"/>
-      <c r="M8" s="123" t="s">
+      <c r="L8" s="154"/>
+      <c r="M8" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="124"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="125"/>
+      <c r="N8" s="158"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="158"/>
+      <c r="R8" s="159"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="126" t="s">
+      <c r="B9" s="143"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="108" t="s">
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="108"/>
-      <c r="I9" s="126" t="s">
+      <c r="H9" s="143"/>
+      <c r="I9" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="126"/>
-      <c r="K9" s="108" t="s">
+      <c r="J9" s="144"/>
+      <c r="K9" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="108"/>
-      <c r="M9" s="126" t="s">
+      <c r="L9" s="143"/>
+      <c r="M9" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="137"/>
-      <c r="O9" s="137"/>
-      <c r="P9" s="137"/>
-      <c r="Q9" s="137"/>
-      <c r="R9" s="138"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="152"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="126" t="s">
+      <c r="B10" s="143"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="127"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="145"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="133"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="126"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="127"/>
+      <c r="A11" s="146"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="144"/>
+      <c r="P11" s="144"/>
+      <c r="Q11" s="144"/>
+      <c r="R11" s="145"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="135" t="s">
+      <c r="B12" s="143"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="136"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="149"/>
+      <c r="O12" s="149"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="149"/>
+      <c r="R12" s="150"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="142" t="s">
+      <c r="A13" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="143"/>
-      <c r="C13" s="144" t="s">
+      <c r="B13" s="135"/>
+      <c r="C13" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="145"/>
-      <c r="Q13" s="145"/>
-      <c r="R13" s="146"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="137"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="137"/>
+      <c r="R13" s="138"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
-      <c r="B14" s="147"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="149"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="141"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="63"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="140"/>
-      <c r="M15" s="140"/>
-      <c r="N15" s="140"/>
-      <c r="O15" s="140"/>
-      <c r="P15" s="140"/>
-      <c r="Q15" s="140"/>
-      <c r="R15" s="141"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="133"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="63"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
-      <c r="N16" s="140"/>
-      <c r="O16" s="140"/>
-      <c r="P16" s="140"/>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="141"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="132"/>
+      <c r="Q16" s="132"/>
+      <c r="R16" s="133"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="63"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="140"/>
-      <c r="L17" s="140"/>
-      <c r="M17" s="140"/>
-      <c r="N17" s="140"/>
-      <c r="O17" s="140"/>
-      <c r="P17" s="140"/>
-      <c r="Q17" s="140"/>
-      <c r="R17" s="141"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="132"/>
+      <c r="Q17" s="132"/>
+      <c r="R17" s="133"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="63"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="140"/>
-      <c r="O18" s="140"/>
-      <c r="P18" s="140"/>
-      <c r="Q18" s="140"/>
-      <c r="R18" s="141"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="132"/>
+      <c r="Q18" s="132"/>
+      <c r="R18" s="133"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="63"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="140"/>
-      <c r="O19" s="140"/>
-      <c r="P19" s="140"/>
-      <c r="Q19" s="140"/>
-      <c r="R19" s="141"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="132"/>
+      <c r="Q19" s="132"/>
+      <c r="R19" s="133"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="63"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="140"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="140"/>
-      <c r="N20" s="140"/>
-      <c r="O20" s="140"/>
-      <c r="P20" s="140"/>
-      <c r="Q20" s="140"/>
-      <c r="R20" s="141"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="132"/>
+      <c r="R20" s="133"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="63"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="140"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="140"/>
-      <c r="N21" s="140"/>
-      <c r="O21" s="140"/>
-      <c r="P21" s="140"/>
-      <c r="Q21" s="140"/>
-      <c r="R21" s="141"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="132"/>
+      <c r="Q21" s="132"/>
+      <c r="R21" s="133"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="63"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="140"/>
-      <c r="L22" s="140"/>
-      <c r="M22" s="140"/>
-      <c r="N22" s="140"/>
-      <c r="O22" s="140"/>
-      <c r="P22" s="140"/>
-      <c r="Q22" s="140"/>
-      <c r="R22" s="141"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="132"/>
+      <c r="Q22" s="132"/>
+      <c r="R22" s="133"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="63"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="140"/>
-      <c r="L23" s="140"/>
-      <c r="M23" s="140"/>
-      <c r="N23" s="140"/>
-      <c r="O23" s="140"/>
-      <c r="P23" s="140"/>
-      <c r="Q23" s="140"/>
-      <c r="R23" s="141"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="132"/>
+      <c r="Q23" s="132"/>
+      <c r="R23" s="133"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="63"/>
-      <c r="B24" s="139"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="140"/>
-      <c r="L24" s="140"/>
-      <c r="M24" s="140"/>
-      <c r="N24" s="140"/>
-      <c r="O24" s="140"/>
-      <c r="P24" s="140"/>
-      <c r="Q24" s="140"/>
-      <c r="R24" s="141"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="132"/>
+      <c r="Q24" s="132"/>
+      <c r="R24" s="133"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="63"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="140"/>
-      <c r="L25" s="140"/>
-      <c r="M25" s="140"/>
-      <c r="N25" s="140"/>
-      <c r="O25" s="140"/>
-      <c r="P25" s="140"/>
-      <c r="Q25" s="140"/>
-      <c r="R25" s="141"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="132"/>
+      <c r="Q25" s="132"/>
+      <c r="R25" s="133"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="63"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="140"/>
-      <c r="N26" s="140"/>
-      <c r="O26" s="140"/>
-      <c r="P26" s="140"/>
-      <c r="Q26" s="140"/>
-      <c r="R26" s="141"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="132"/>
+      <c r="Q26" s="132"/>
+      <c r="R26" s="133"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="63"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="140"/>
-      <c r="L27" s="140"/>
-      <c r="M27" s="140"/>
-      <c r="N27" s="140"/>
-      <c r="O27" s="140"/>
-      <c r="P27" s="140"/>
-      <c r="Q27" s="140"/>
-      <c r="R27" s="141"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="132"/>
+      <c r="Q27" s="132"/>
+      <c r="R27" s="133"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="63"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="140"/>
-      <c r="M28" s="140"/>
-      <c r="N28" s="140"/>
-      <c r="O28" s="140"/>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="140"/>
-      <c r="R28" s="141"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="132"/>
+      <c r="Q28" s="132"/>
+      <c r="R28" s="133"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="63"/>
-      <c r="B29" s="139"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="140"/>
-      <c r="N29" s="140"/>
-      <c r="O29" s="140"/>
-      <c r="P29" s="140"/>
-      <c r="Q29" s="140"/>
-      <c r="R29" s="141"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="132"/>
+      <c r="Q29" s="132"/>
+      <c r="R29" s="133"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="63"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="140"/>
-      <c r="L30" s="140"/>
-      <c r="M30" s="140"/>
-      <c r="N30" s="140"/>
-      <c r="O30" s="140"/>
-      <c r="P30" s="140"/>
-      <c r="Q30" s="140"/>
-      <c r="R30" s="141"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="132"/>
+      <c r="Q30" s="132"/>
+      <c r="R30" s="133"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="63"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="140"/>
-      <c r="L31" s="140"/>
-      <c r="M31" s="140"/>
-      <c r="N31" s="140"/>
-      <c r="O31" s="140"/>
-      <c r="P31" s="140"/>
-      <c r="Q31" s="140"/>
-      <c r="R31" s="141"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="132"/>
+      <c r="Q31" s="132"/>
+      <c r="R31" s="133"/>
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
-      <c r="B32" s="139"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="140"/>
-      <c r="L32" s="140"/>
-      <c r="M32" s="140"/>
-      <c r="N32" s="140"/>
-      <c r="O32" s="140"/>
-      <c r="P32" s="140"/>
-      <c r="Q32" s="140"/>
-      <c r="R32" s="141"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="132"/>
+      <c r="Q32" s="132"/>
+      <c r="R32" s="133"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
-      <c r="B33" s="139"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="140"/>
-      <c r="L33" s="140"/>
-      <c r="M33" s="140"/>
-      <c r="N33" s="140"/>
-      <c r="O33" s="140"/>
-      <c r="P33" s="140"/>
-      <c r="Q33" s="140"/>
-      <c r="R33" s="141"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="132"/>
+      <c r="P33" s="132"/>
+      <c r="Q33" s="132"/>
+      <c r="R33" s="133"/>
     </row>
     <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
-      <c r="B34" s="139"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="140"/>
-      <c r="K34" s="140"/>
-      <c r="L34" s="140"/>
-      <c r="M34" s="140"/>
-      <c r="N34" s="140"/>
-      <c r="O34" s="140"/>
-      <c r="P34" s="140"/>
-      <c r="Q34" s="140"/>
-      <c r="R34" s="141"/>
+      <c r="B34" s="131"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="132"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="132"/>
+      <c r="N34" s="132"/>
+      <c r="O34" s="132"/>
+      <c r="P34" s="132"/>
+      <c r="Q34" s="132"/>
+      <c r="R34" s="133"/>
     </row>
     <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
-      <c r="B35" s="139"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="140"/>
-      <c r="F35" s="140"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="140"/>
-      <c r="L35" s="140"/>
-      <c r="M35" s="140"/>
-      <c r="N35" s="140"/>
-      <c r="O35" s="140"/>
-      <c r="P35" s="140"/>
-      <c r="Q35" s="140"/>
-      <c r="R35" s="141"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="132"/>
+      <c r="N35" s="132"/>
+      <c r="O35" s="132"/>
+      <c r="P35" s="132"/>
+      <c r="Q35" s="132"/>
+      <c r="R35" s="133"/>
     </row>
     <row r="36" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="64"/>
-      <c r="B36" s="153"/>
-      <c r="C36" s="154"/>
-      <c r="D36" s="154"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="154"/>
-      <c r="G36" s="154"/>
-      <c r="H36" s="154"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="154"/>
-      <c r="K36" s="154"/>
-      <c r="L36" s="154"/>
-      <c r="M36" s="154"/>
-      <c r="N36" s="154"/>
-      <c r="O36" s="154"/>
-      <c r="P36" s="154"/>
-      <c r="Q36" s="154"/>
-      <c r="R36" s="155"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="123"/>
+      <c r="N36" s="123"/>
+      <c r="O36" s="123"/>
+      <c r="P36" s="123"/>
+      <c r="Q36" s="123"/>
+      <c r="R36" s="124"/>
     </row>
     <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="156" t="s">
+      <c r="A37" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="157"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="156" t="s">
+      <c r="B37" s="126"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="J37" s="157"/>
-      <c r="K37" s="157"/>
-      <c r="L37" s="157"/>
-      <c r="M37" s="157"/>
-      <c r="N37" s="157"/>
-      <c r="O37" s="157"/>
-      <c r="P37" s="157"/>
-      <c r="Q37" s="157"/>
-      <c r="R37" s="158"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="126"/>
+      <c r="L37" s="126"/>
+      <c r="M37" s="126"/>
+      <c r="N37" s="126"/>
+      <c r="O37" s="126"/>
+      <c r="P37" s="126"/>
+      <c r="Q37" s="126"/>
+      <c r="R37" s="127"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="65" t="s">
@@ -6037,22 +6581,22 @@
       <c r="I38" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="J38" s="159" t="s">
+      <c r="J38" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="160"/>
+      <c r="K38" s="129"/>
       <c r="L38" s="67" t="s">
         <v>1</v>
       </c>
       <c r="M38" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="N38" s="159" t="s">
+      <c r="N38" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="O38" s="161"/>
-      <c r="P38" s="161"/>
-      <c r="Q38" s="160"/>
+      <c r="O38" s="130"/>
+      <c r="P38" s="130"/>
+      <c r="Q38" s="129"/>
       <c r="R38" s="69" t="s">
         <v>1</v>
       </c>
@@ -6077,18 +6621,18 @@
       <c r="I39" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="150" t="s">
+      <c r="J39" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="K39" s="151"/>
+      <c r="K39" s="114"/>
       <c r="L39" s="73" t="s">
         <v>36</v>
       </c>
       <c r="M39" s="74"/>
-      <c r="N39" s="150"/>
-      <c r="O39" s="152"/>
-      <c r="P39" s="152"/>
-      <c r="Q39" s="151"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="115"/>
+      <c r="P39" s="115"/>
+      <c r="Q39" s="114"/>
       <c r="R39" s="76"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6101,14 +6645,14 @@
       <c r="G40" s="72"/>
       <c r="H40" s="75"/>
       <c r="I40" s="70"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="151"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="114"/>
       <c r="L40" s="73"/>
       <c r="M40" s="74"/>
-      <c r="N40" s="150"/>
-      <c r="O40" s="152"/>
-      <c r="P40" s="152"/>
-      <c r="Q40" s="151"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="115"/>
+      <c r="P40" s="115"/>
+      <c r="Q40" s="114"/>
       <c r="R40" s="76"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6121,14 +6665,14 @@
       <c r="G41" s="72"/>
       <c r="H41" s="75"/>
       <c r="I41" s="70"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="151"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="114"/>
       <c r="L41" s="73"/>
       <c r="M41" s="74"/>
-      <c r="N41" s="150"/>
-      <c r="O41" s="152"/>
-      <c r="P41" s="152"/>
-      <c r="Q41" s="151"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="115"/>
+      <c r="P41" s="115"/>
+      <c r="Q41" s="114"/>
       <c r="R41" s="76"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6141,14 +6685,14 @@
       <c r="G42" s="72"/>
       <c r="H42" s="75"/>
       <c r="I42" s="70"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="151"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="114"/>
       <c r="L42" s="73"/>
       <c r="M42" s="74"/>
-      <c r="N42" s="150"/>
-      <c r="O42" s="152"/>
-      <c r="P42" s="152"/>
-      <c r="Q42" s="151"/>
+      <c r="N42" s="113"/>
+      <c r="O42" s="115"/>
+      <c r="P42" s="115"/>
+      <c r="Q42" s="114"/>
       <c r="R42" s="76"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6161,14 +6705,14 @@
       <c r="G43" s="72"/>
       <c r="H43" s="75"/>
       <c r="I43" s="70"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="151"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="114"/>
       <c r="L43" s="73"/>
       <c r="M43" s="74"/>
-      <c r="N43" s="150"/>
-      <c r="O43" s="152"/>
-      <c r="P43" s="152"/>
-      <c r="Q43" s="151"/>
+      <c r="N43" s="113"/>
+      <c r="O43" s="115"/>
+      <c r="P43" s="115"/>
+      <c r="Q43" s="114"/>
       <c r="R43" s="76"/>
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6181,14 +6725,14 @@
       <c r="G44" s="72"/>
       <c r="H44" s="75"/>
       <c r="I44" s="70"/>
-      <c r="J44" s="150"/>
-      <c r="K44" s="151"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="114"/>
       <c r="L44" s="73"/>
       <c r="M44" s="74"/>
-      <c r="N44" s="150"/>
-      <c r="O44" s="152"/>
-      <c r="P44" s="152"/>
-      <c r="Q44" s="151"/>
+      <c r="N44" s="113"/>
+      <c r="O44" s="115"/>
+      <c r="P44" s="115"/>
+      <c r="Q44" s="114"/>
       <c r="R44" s="76"/>
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6201,14 +6745,14 @@
       <c r="G45" s="72"/>
       <c r="H45" s="75"/>
       <c r="I45" s="70"/>
-      <c r="J45" s="150"/>
-      <c r="K45" s="151"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="114"/>
       <c r="L45" s="73"/>
       <c r="M45" s="74"/>
-      <c r="N45" s="150"/>
-      <c r="O45" s="152"/>
-      <c r="P45" s="152"/>
-      <c r="Q45" s="151"/>
+      <c r="N45" s="113"/>
+      <c r="O45" s="115"/>
+      <c r="P45" s="115"/>
+      <c r="Q45" s="114"/>
       <c r="R45" s="76"/>
     </row>
     <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6221,14 +6765,14 @@
       <c r="G46" s="72"/>
       <c r="H46" s="75"/>
       <c r="I46" s="70"/>
-      <c r="J46" s="150"/>
-      <c r="K46" s="151"/>
+      <c r="J46" s="113"/>
+      <c r="K46" s="114"/>
       <c r="L46" s="73"/>
       <c r="M46" s="74"/>
-      <c r="N46" s="150"/>
-      <c r="O46" s="152"/>
-      <c r="P46" s="152"/>
-      <c r="Q46" s="151"/>
+      <c r="N46" s="113"/>
+      <c r="O46" s="115"/>
+      <c r="P46" s="115"/>
+      <c r="Q46" s="114"/>
       <c r="R46" s="76"/>
     </row>
     <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6241,14 +6785,14 @@
       <c r="G47" s="72"/>
       <c r="H47" s="75"/>
       <c r="I47" s="70"/>
-      <c r="J47" s="150"/>
-      <c r="K47" s="151"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="114"/>
       <c r="L47" s="73"/>
       <c r="M47" s="74"/>
-      <c r="N47" s="150"/>
-      <c r="O47" s="152"/>
-      <c r="P47" s="152"/>
-      <c r="Q47" s="151"/>
+      <c r="N47" s="113"/>
+      <c r="O47" s="115"/>
+      <c r="P47" s="115"/>
+      <c r="Q47" s="114"/>
       <c r="R47" s="76"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6261,14 +6805,14 @@
       <c r="G48" s="72"/>
       <c r="H48" s="75"/>
       <c r="I48" s="70"/>
-      <c r="J48" s="150"/>
-      <c r="K48" s="151"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="114"/>
       <c r="L48" s="73"/>
       <c r="M48" s="74"/>
-      <c r="N48" s="150"/>
-      <c r="O48" s="152"/>
-      <c r="P48" s="152"/>
-      <c r="Q48" s="151"/>
+      <c r="N48" s="113"/>
+      <c r="O48" s="115"/>
+      <c r="P48" s="115"/>
+      <c r="Q48" s="114"/>
       <c r="R48" s="76"/>
     </row>
     <row r="49" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6281,14 +6825,14 @@
       <c r="G49" s="72"/>
       <c r="H49" s="75"/>
       <c r="I49" s="70"/>
-      <c r="J49" s="150"/>
-      <c r="K49" s="151"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="114"/>
       <c r="L49" s="73"/>
       <c r="M49" s="74"/>
-      <c r="N49" s="150"/>
-      <c r="O49" s="152"/>
-      <c r="P49" s="152"/>
-      <c r="Q49" s="151"/>
+      <c r="N49" s="113"/>
+      <c r="O49" s="115"/>
+      <c r="P49" s="115"/>
+      <c r="Q49" s="114"/>
       <c r="R49" s="76"/>
     </row>
     <row r="50" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6301,14 +6845,14 @@
       <c r="G50" s="72"/>
       <c r="H50" s="75"/>
       <c r="I50" s="70"/>
-      <c r="J50" s="150"/>
-      <c r="K50" s="151"/>
+      <c r="J50" s="113"/>
+      <c r="K50" s="114"/>
       <c r="L50" s="73"/>
       <c r="M50" s="74"/>
-      <c r="N50" s="150"/>
-      <c r="O50" s="152"/>
-      <c r="P50" s="152"/>
-      <c r="Q50" s="151"/>
+      <c r="N50" s="113"/>
+      <c r="O50" s="115"/>
+      <c r="P50" s="115"/>
+      <c r="Q50" s="114"/>
       <c r="R50" s="76"/>
     </row>
     <row r="51" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6321,14 +6865,14 @@
       <c r="G51" s="72"/>
       <c r="H51" s="75"/>
       <c r="I51" s="70"/>
-      <c r="J51" s="150"/>
-      <c r="K51" s="151"/>
+      <c r="J51" s="113"/>
+      <c r="K51" s="114"/>
       <c r="L51" s="73"/>
       <c r="M51" s="74"/>
-      <c r="N51" s="150"/>
-      <c r="O51" s="152"/>
-      <c r="P51" s="152"/>
-      <c r="Q51" s="151"/>
+      <c r="N51" s="113"/>
+      <c r="O51" s="115"/>
+      <c r="P51" s="115"/>
+      <c r="Q51" s="114"/>
       <c r="R51" s="76"/>
     </row>
     <row r="52" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -6341,14 +6885,14 @@
       <c r="G52" s="72"/>
       <c r="H52" s="75"/>
       <c r="I52" s="70"/>
-      <c r="J52" s="150"/>
-      <c r="K52" s="151"/>
+      <c r="J52" s="113"/>
+      <c r="K52" s="114"/>
       <c r="L52" s="73"/>
       <c r="M52" s="74"/>
-      <c r="N52" s="150"/>
-      <c r="O52" s="152"/>
-      <c r="P52" s="152"/>
-      <c r="Q52" s="151"/>
+      <c r="N52" s="113"/>
+      <c r="O52" s="115"/>
+      <c r="P52" s="115"/>
+      <c r="Q52" s="114"/>
       <c r="R52" s="76"/>
     </row>
     <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6361,120 +6905,60 @@
       <c r="G53" s="79"/>
       <c r="H53" s="82"/>
       <c r="I53" s="77"/>
-      <c r="J53" s="150"/>
-      <c r="K53" s="151"/>
+      <c r="J53" s="113"/>
+      <c r="K53" s="114"/>
       <c r="L53" s="80"/>
       <c r="M53" s="81"/>
-      <c r="N53" s="150"/>
-      <c r="O53" s="152"/>
-      <c r="P53" s="152"/>
-      <c r="Q53" s="151"/>
+      <c r="N53" s="113"/>
+      <c r="O53" s="115"/>
+      <c r="P53" s="115"/>
+      <c r="Q53" s="114"/>
       <c r="R53" s="76"/>
     </row>
     <row r="54" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="162" t="s">
+      <c r="A54" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="163"/>
-      <c r="C54" s="164">
+      <c r="B54" s="117"/>
+      <c r="C54" s="118">
         <v>0</v>
       </c>
-      <c r="D54" s="165"/>
-      <c r="E54" s="166" t="s">
+      <c r="D54" s="119"/>
+      <c r="E54" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="F54" s="167"/>
-      <c r="G54" s="167"/>
-      <c r="H54" s="167"/>
-      <c r="I54" s="167"/>
-      <c r="J54" s="167"/>
-      <c r="K54" s="167"/>
-      <c r="L54" s="167"/>
-      <c r="M54" s="167"/>
-      <c r="N54" s="167"/>
-      <c r="O54" s="167"/>
-      <c r="P54" s="167"/>
-      <c r="Q54" s="167"/>
-      <c r="R54" s="167"/>
+      <c r="F54" s="121"/>
+      <c r="G54" s="121"/>
+      <c r="H54" s="121"/>
+      <c r="I54" s="121"/>
+      <c r="J54" s="121"/>
+      <c r="K54" s="121"/>
+      <c r="L54" s="121"/>
+      <c r="M54" s="121"/>
+      <c r="N54" s="121"/>
+      <c r="O54" s="121"/>
+      <c r="P54" s="121"/>
+      <c r="Q54" s="121"/>
+      <c r="R54" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:R54"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="B36:R36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="I37:R37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="B30:R30"/>
-    <mergeCell ref="B31:R31"/>
-    <mergeCell ref="B33:R33"/>
-    <mergeCell ref="B34:R34"/>
-    <mergeCell ref="B35:R35"/>
-    <mergeCell ref="B32:R32"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B25:R25"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="B27:R27"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B17:R17"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B15:R15"/>
-    <mergeCell ref="B16:R16"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:R10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:R11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:R1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -6491,22 +6975,82 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="D7:L7"/>
     <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:R1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:R10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:R11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="B17:R17"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B15:R15"/>
+    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="B30:R30"/>
+    <mergeCell ref="B31:R31"/>
+    <mergeCell ref="B33:R33"/>
+    <mergeCell ref="B34:R34"/>
+    <mergeCell ref="B35:R35"/>
+    <mergeCell ref="B32:R32"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="B27:R27"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="B36:R36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="I37:R37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:R54"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="N51:Q51"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid options in the dropdown list." sqref="Q5">
@@ -6525,89 +7069,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AM41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K39" sqref="A20:K39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16.5703125" customWidth="1"/>
     <col min="32" max="32" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="172" t="s">
+      <c r="C3" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="172" t="s">
+      <c r="D3" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="174" t="s">
+      <c r="E3" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="175"/>
-      <c r="G3" s="178" t="s">
+      <c r="F3" s="183"/>
+      <c r="G3" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="179"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="178" t="s">
+      <c r="H3" s="187"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="179"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="178" t="s">
+      <c r="K3" s="187"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="180"/>
+      <c r="N3" s="188"/>
       <c r="O3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="178" t="s">
+      <c r="Q3" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="179"/>
-      <c r="S3" s="180"/>
-      <c r="T3" s="178" t="s">
+      <c r="R3" s="187"/>
+      <c r="S3" s="188"/>
+      <c r="T3" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="179"/>
-      <c r="V3" s="180"/>
-      <c r="W3" s="178" t="s">
+      <c r="U3" s="187"/>
+      <c r="V3" s="188"/>
+      <c r="W3" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="179"/>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="168" t="s">
+      <c r="X3" s="187"/>
+      <c r="Y3" s="188"/>
+      <c r="Z3" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="168" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB3" s="172" t="s">
+      <c r="AA3" s="174" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB3" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="AC3" s="181" t="s">
+      <c r="AC3" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="168" t="s">
+      <c r="AD3" s="177"/>
+      <c r="AE3" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" s="168" t="s">
-        <v>84</v>
+      <c r="AF3" s="174" t="s">
+        <v>79</v>
       </c>
       <c r="AG3" s="97"/>
       <c r="AH3" s="97"/>
@@ -6618,26 +7163,26 @@
       <c r="AM3" s="97"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="173"/>
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="177"/>
+      <c r="A4" s="179"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="185"/>
       <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="170" t="s">
+      <c r="H4" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="171"/>
+      <c r="I4" s="181"/>
       <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="170" t="s">
+      <c r="K4" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="171"/>
+      <c r="L4" s="181"/>
       <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
@@ -6662,28 +7207,28 @@
       <c r="T4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="170" t="s">
+      <c r="U4" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="171"/>
+      <c r="V4" s="181"/>
       <c r="W4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="170" t="s">
+      <c r="X4" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="171"/>
-      <c r="Z4" s="169"/>
-      <c r="AA4" s="169"/>
-      <c r="AB4" s="173"/>
+      <c r="Y4" s="181"/>
+      <c r="Z4" s="175"/>
+      <c r="AA4" s="175"/>
+      <c r="AB4" s="179"/>
       <c r="AC4" s="48" t="s">
         <v>27</v>
       </c>
       <c r="AD4" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="AE4" s="173"/>
-      <c r="AF4" s="169"/>
+      <c r="AE4" s="179"/>
+      <c r="AF4" s="175"/>
       <c r="AG4" s="97"/>
       <c r="AH4" s="97"/>
       <c r="AI4" s="97"/>
@@ -6740,53 +7285,39 @@
       <c r="B6" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="112">
         <v>1</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E6" s="30">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="6">
-        <v>2</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>3</v>
-      </c>
-      <c r="N6" s="10">
-        <v>3</v>
-      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="11">
-        <v>100</v>
-      </c>
+      <c r="P6" s="11"/>
       <c r="Q6" s="41" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="R6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="S6" s="42" t="s">
-        <v>76</v>
-      </c>
       <c r="T6" s="14">
-        <v>500</v>
+        <v>55000</v>
       </c>
       <c r="U6" s="15"/>
       <c r="V6" s="16"/>
@@ -6795,15 +7326,9 @@
       <c r="Y6" s="16"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
-      <c r="AB6" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC6" s="11">
-        <v>240</v>
-      </c>
-      <c r="AD6" s="12">
-        <v>360</v>
-      </c>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="12"/>
       <c r="AE6" s="84" t="s">
         <v>30</v>
       </c>
@@ -6818,9 +7343,7 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="25" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" s="25"/>
       <c r="C7" s="19"/>
       <c r="D7" s="18"/>
       <c r="E7" s="31"/>
@@ -6835,50 +7358,42 @@
       <c r="N7" s="24"/>
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
-      <c r="Q7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="R7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="S7" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="T7" s="28">
-        <v>300</v>
-      </c>
-      <c r="U7" s="21">
-        <v>0</v>
-      </c>
-      <c r="V7" s="22">
-        <v>0</v>
-      </c>
-      <c r="W7" s="28">
-        <v>300</v>
-      </c>
-      <c r="X7" s="21">
-        <v>5</v>
-      </c>
-      <c r="Y7" s="22">
-        <v>0</v>
-      </c>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="22"/>
       <c r="Z7" s="29"/>
       <c r="AA7" s="29"/>
-      <c r="AB7" s="55" t="s">
-        <v>30</v>
-      </c>
+      <c r="AB7" s="55"/>
       <c r="AC7" s="25"/>
       <c r="AD7" s="26"/>
       <c r="AE7" s="25"/>
       <c r="AF7" s="29"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="22"/>
+      <c r="A8" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="31">
+        <v>60</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
       <c r="G8" s="20"/>
       <c r="H8" s="21"/>
       <c r="I8" s="22"/>
@@ -6889,10 +7404,18 @@
       <c r="N8" s="24"/>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="28"/>
+      <c r="Q8" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" s="28">
+        <v>55000</v>
+      </c>
       <c r="U8" s="21"/>
       <c r="V8" s="22"/>
       <c r="W8" s="28"/>
@@ -6900,61 +7423,33 @@
       <c r="Y8" s="22"/>
       <c r="Z8" s="29"/>
       <c r="AA8" s="29"/>
-      <c r="AB8" s="55" t="s">
-        <v>30</v>
-      </c>
+      <c r="AB8" s="55"/>
       <c r="AC8" s="25"/>
       <c r="AD8" s="26"/>
       <c r="AE8" s="25"/>
       <c r="AF8" s="29"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="19">
-        <v>1</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="31">
-        <v>30</v>
-      </c>
-      <c r="F9" s="22">
-        <v>0</v>
-      </c>
+      <c r="A9" s="18"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="20"/>
       <c r="H9" s="21"/>
       <c r="I9" s="22"/>
       <c r="J9" s="20"/>
       <c r="K9" s="21"/>
       <c r="L9" s="22"/>
-      <c r="M9" s="23">
-        <v>3</v>
-      </c>
-      <c r="N9" s="24">
-        <v>3</v>
-      </c>
+      <c r="M9" s="23"/>
+      <c r="N9" s="24"/>
       <c r="O9" s="25"/>
-      <c r="P9" s="25">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="S9" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="T9" s="28">
-        <v>200</v>
-      </c>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="28"/>
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
       <c r="W9" s="28"/>
@@ -6962,21 +7457,29 @@
       <c r="Y9" s="22"/>
       <c r="Z9" s="29"/>
       <c r="AA9" s="29"/>
-      <c r="AB9" s="55" t="s">
-        <v>30</v>
-      </c>
+      <c r="AB9" s="55"/>
       <c r="AC9" s="25"/>
       <c r="AD9" s="26"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="29"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="B10" s="25"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="22"/>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="31">
+        <v>60</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0</v>
+      </c>
       <c r="G10" s="20"/>
       <c r="H10" s="21"/>
       <c r="I10" s="22"/>
@@ -6987,50 +7490,26 @@
       <c r="N10" s="24"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
-      <c r="Q10" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="R10" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="S10" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="T10" s="28">
-        <v>200</v>
-      </c>
-      <c r="U10" s="21">
-        <v>0</v>
-      </c>
-      <c r="V10" s="22">
-        <v>0</v>
-      </c>
-      <c r="W10" s="28">
-        <v>200</v>
-      </c>
-      <c r="X10" s="21">
-        <v>10</v>
-      </c>
-      <c r="Y10" s="22">
-        <v>0</v>
-      </c>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="22"/>
       <c r="Z10" s="29"/>
       <c r="AA10" s="29"/>
-      <c r="AB10" s="55" t="s">
-        <v>30</v>
-      </c>
+      <c r="AB10" s="55"/>
       <c r="AC10" s="25"/>
       <c r="AD10" s="26"/>
       <c r="AE10" s="25"/>
       <c r="AF10" s="29"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>87</v>
-      </c>
+      <c r="A11" s="18"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="E11" s="31"/>
@@ -7056,9 +7535,7 @@
       <c r="Y11" s="22"/>
       <c r="Z11" s="29"/>
       <c r="AA11" s="29"/>
-      <c r="AB11" s="55" t="s">
-        <v>30</v>
-      </c>
+      <c r="AB11" s="55"/>
       <c r="AC11" s="25"/>
       <c r="AD11" s="26"/>
       <c r="AE11" s="25"/>
@@ -7099,9 +7576,7 @@
       <c r="Y12" s="22"/>
       <c r="Z12" s="29"/>
       <c r="AA12" s="29"/>
-      <c r="AB12" s="55" t="s">
-        <v>30</v>
-      </c>
+      <c r="AB12" s="55"/>
       <c r="AC12" s="25"/>
       <c r="AD12" s="26"/>
       <c r="AE12" s="25"/>
@@ -7116,7 +7591,7 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="19">
@@ -7126,20 +7601,14 @@
         <v>93</v>
       </c>
       <c r="E13" s="31">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F13" s="22">
         <v>0</v>
       </c>
-      <c r="G13" s="20">
-        <v>2</v>
-      </c>
-      <c r="H13" s="21">
-        <v>2</v>
-      </c>
-      <c r="I13" s="22">
-        <v>0</v>
-      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="20"/>
       <c r="K13" s="21"/>
       <c r="L13" s="22"/>
@@ -7158,9 +7627,7 @@
       <c r="Y13" s="22"/>
       <c r="Z13" s="29"/>
       <c r="AA13" s="29"/>
-      <c r="AB13" s="55" t="s">
-        <v>30</v>
-      </c>
+      <c r="AB13" s="55"/>
       <c r="AC13" s="25"/>
       <c r="AD13" s="26"/>
       <c r="AE13" s="25"/>
@@ -7201,9 +7668,7 @@
       <c r="Y14" s="22"/>
       <c r="Z14" s="29"/>
       <c r="AA14" s="29"/>
-      <c r="AB14" s="55" t="s">
-        <v>30</v>
-      </c>
+      <c r="AB14" s="55"/>
       <c r="AC14" s="25"/>
       <c r="AD14" s="26"/>
       <c r="AE14" s="25"/>
@@ -7217,12 +7682,22 @@
       <c r="AM14" s="97"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="22"/>
+      <c r="C15" s="19">
+        <v>1</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="31">
+        <v>50</v>
+      </c>
+      <c r="F15" s="22">
+        <v>0</v>
+      </c>
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
@@ -7244,9 +7719,7 @@
       <c r="Y15" s="22"/>
       <c r="Z15" s="29"/>
       <c r="AA15" s="29"/>
-      <c r="AB15" s="55" t="s">
-        <v>30</v>
-      </c>
+      <c r="AB15" s="55"/>
       <c r="AC15" s="25"/>
       <c r="AD15" s="26"/>
       <c r="AE15" s="25"/>
@@ -7260,33 +7733,15 @@
       <c r="AM15" s="97"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="19">
-        <v>1</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="31">
-        <v>30</v>
-      </c>
-      <c r="F16" s="22">
-        <v>0</v>
-      </c>
-      <c r="G16" s="20">
-        <v>2</v>
-      </c>
-      <c r="H16" s="21">
-        <v>2</v>
-      </c>
-      <c r="I16" s="22">
-        <v>0</v>
-      </c>
+      <c r="A16" s="18"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
       <c r="L16" s="22"/>
@@ -7305,9 +7760,7 @@
       <c r="Y16" s="22"/>
       <c r="Z16" s="29"/>
       <c r="AA16" s="29"/>
-      <c r="AB16" s="55" t="s">
-        <v>30</v>
-      </c>
+      <c r="AB16" s="55"/>
       <c r="AC16" s="25"/>
       <c r="AD16" s="26"/>
       <c r="AE16" s="25"/>
@@ -7320,7 +7773,7 @@
       <c r="AL16" s="97"/>
       <c r="AM16" s="97"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="25"/>
       <c r="C17" s="19"/>
@@ -7348,9 +7801,7 @@
       <c r="Y17" s="22"/>
       <c r="Z17" s="29"/>
       <c r="AA17" s="29"/>
-      <c r="AB17" s="55" t="s">
-        <v>30</v>
-      </c>
+      <c r="AB17" s="55"/>
       <c r="AC17" s="25"/>
       <c r="AD17" s="26"/>
       <c r="AE17" s="25"/>
@@ -7364,12 +7815,22 @@
       <c r="AM17" s="97"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="18" t="s">
+        <v>92</v>
+      </c>
       <c r="B18" s="25"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="22"/>
+      <c r="C18" s="19">
+        <v>1</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="31">
+        <v>50</v>
+      </c>
+      <c r="F18" s="22">
+        <v>0</v>
+      </c>
       <c r="G18" s="20"/>
       <c r="H18" s="21"/>
       <c r="I18" s="22"/>
@@ -7380,10 +7841,18 @@
       <c r="N18" s="24"/>
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="28"/>
+      <c r="Q18" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="S18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="T18" s="14">
+        <v>55000</v>
+      </c>
       <c r="U18" s="21"/>
       <c r="V18" s="22"/>
       <c r="W18" s="28"/>
@@ -7391,9 +7860,7 @@
       <c r="Y18" s="22"/>
       <c r="Z18" s="29"/>
       <c r="AA18" s="29"/>
-      <c r="AB18" s="55" t="s">
-        <v>30</v>
-      </c>
+      <c r="AB18" s="55"/>
       <c r="AC18" s="25"/>
       <c r="AD18" s="26"/>
       <c r="AE18" s="25"/>
@@ -7434,9 +7901,7 @@
       <c r="Y19" s="22"/>
       <c r="Z19" s="29"/>
       <c r="AA19" s="29"/>
-      <c r="AB19" s="55" t="s">
-        <v>30</v>
-      </c>
+      <c r="AB19" s="55"/>
       <c r="AC19" s="25"/>
       <c r="AD19" s="26"/>
       <c r="AE19" s="25"/>
@@ -7450,12 +7915,22 @@
       <c r="AM19" s="97"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="B20" s="25"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="22"/>
+      <c r="C20" s="19">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="31">
+        <v>50</v>
+      </c>
+      <c r="F20" s="22">
+        <v>0</v>
+      </c>
       <c r="G20" s="20"/>
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
@@ -7466,10 +7941,18 @@
       <c r="N20" s="24"/>
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="28"/>
+      <c r="Q20" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="R20" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="S20" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="T20" s="28">
+        <v>55000</v>
+      </c>
       <c r="U20" s="21"/>
       <c r="V20" s="22"/>
       <c r="W20" s="28"/>
@@ -7477,9 +7960,7 @@
       <c r="Y20" s="22"/>
       <c r="Z20" s="29"/>
       <c r="AA20" s="29"/>
-      <c r="AB20" s="55" t="s">
-        <v>30</v>
-      </c>
+      <c r="AB20" s="55"/>
       <c r="AC20" s="25"/>
       <c r="AD20" s="26"/>
       <c r="AE20" s="25"/>
@@ -7520,9 +8001,7 @@
       <c r="Y21" s="22"/>
       <c r="Z21" s="29"/>
       <c r="AA21" s="29"/>
-      <c r="AB21" s="55" t="s">
-        <v>30</v>
-      </c>
+      <c r="AB21" s="55"/>
       <c r="AC21" s="25"/>
       <c r="AD21" s="26"/>
       <c r="AE21" s="25"/>
@@ -7563,9 +8042,7 @@
       <c r="Y22" s="22"/>
       <c r="Z22" s="29"/>
       <c r="AA22" s="29"/>
-      <c r="AB22" s="55" t="s">
-        <v>30</v>
-      </c>
+      <c r="AB22" s="55"/>
       <c r="AC22" s="25"/>
       <c r="AD22" s="26"/>
       <c r="AE22" s="25"/>
@@ -7606,9 +8083,7 @@
       <c r="Y23" s="22"/>
       <c r="Z23" s="29"/>
       <c r="AA23" s="29"/>
-      <c r="AB23" s="55" t="s">
-        <v>30</v>
-      </c>
+      <c r="AB23" s="55"/>
       <c r="AC23" s="25"/>
       <c r="AD23" s="26"/>
       <c r="AE23" s="25"/>
@@ -8397,11 +8872,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AF3:AF4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="X4:Y4"/>
@@ -8418,6 +8888,11 @@
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AA3:AA4"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Bad Input" error="Input for this cell must be one of the listed positions and all uppercase!" sqref="S5:S41">
@@ -8445,8 +8920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14:AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8548,93 +9023,93 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="175"/>
-      <c r="E2" s="178" t="s">
+      <c r="D2" s="183"/>
+      <c r="E2" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="179"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="178" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="179"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="178" t="s">
+      <c r="I2" s="187"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="180"/>
+      <c r="L2" s="188"/>
       <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="178" t="s">
+      <c r="O2" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="178" t="s">
+      <c r="P2" s="187"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="179"/>
-      <c r="T2" s="180"/>
-      <c r="U2" s="178" t="s">
+      <c r="S2" s="187"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="179"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="168" t="s">
+      <c r="V2" s="187"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="168" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z2" s="172" t="s">
+      <c r="Y2" s="174" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="181" t="s">
+      <c r="AA2" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="182"/>
-      <c r="AC2" s="168" t="s">
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="AD2" s="181" t="s">
+      <c r="AD2" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="189"/>
-      <c r="AF2" s="189"/>
-      <c r="AG2" s="182"/>
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="177"/>
     </row>
     <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="173"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="177"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="185"/>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="170" t="s">
+      <c r="F3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="171"/>
+      <c r="G3" s="181"/>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="170" t="s">
+      <c r="I3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="171"/>
+      <c r="J3" s="181"/>
       <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
@@ -8659,31 +9134,31 @@
       <c r="R3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="170" t="s">
+      <c r="S3" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="171"/>
+      <c r="T3" s="181"/>
       <c r="U3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="170" t="s">
+      <c r="V3" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="171"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="173"/>
+      <c r="W3" s="181"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="175"/>
+      <c r="Z3" s="179"/>
       <c r="AA3" s="48" t="s">
         <v>27</v>
       </c>
       <c r="AB3" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="AC3" s="173"/>
-      <c r="AD3" s="190"/>
-      <c r="AE3" s="191"/>
-      <c r="AF3" s="191"/>
-      <c r="AG3" s="192"/>
+      <c r="AC3" s="179"/>
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="203"/>
+      <c r="AG3" s="204"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
@@ -8717,10 +9192,10 @@
       <c r="AC4" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="186"/>
-      <c r="AE4" s="187"/>
-      <c r="AF4" s="187"/>
-      <c r="AG4" s="188"/>
+      <c r="AD4" s="198"/>
+      <c r="AE4" s="199"/>
+      <c r="AF4" s="199"/>
+      <c r="AG4" s="200"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -8739,16 +9214,16 @@
       <c r="L5" s="24"/>
       <c r="M5" s="25"/>
       <c r="N5" s="25"/>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="Q5" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="Q5" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="R5" s="28">
+      <c r="R5" s="110">
         <v>500</v>
       </c>
       <c r="S5" s="21"/>
@@ -8762,10 +9237,10 @@
       <c r="AA5" s="25"/>
       <c r="AB5" s="26"/>
       <c r="AC5" s="25"/>
-      <c r="AD5" s="183"/>
-      <c r="AE5" s="184"/>
-      <c r="AF5" s="184"/>
-      <c r="AG5" s="185"/>
+      <c r="AD5" s="192"/>
+      <c r="AE5" s="193"/>
+      <c r="AF5" s="193"/>
+      <c r="AG5" s="194"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
@@ -8797,14 +9272,14 @@
       <c r="AA6" s="25"/>
       <c r="AB6" s="26"/>
       <c r="AC6" s="25"/>
-      <c r="AD6" s="183"/>
-      <c r="AE6" s="184"/>
-      <c r="AF6" s="184"/>
-      <c r="AG6" s="185"/>
+      <c r="AD6" s="192"/>
+      <c r="AE6" s="193"/>
+      <c r="AF6" s="193"/>
+      <c r="AG6" s="194"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>86</v>
+      <c r="A7" s="111" t="s">
+        <v>81</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="31"/>
@@ -8820,13 +9295,13 @@
       <c r="M7" s="25"/>
       <c r="N7" s="25"/>
       <c r="O7" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R7" s="28">
         <v>930</v>
@@ -8842,10 +9317,10 @@
       <c r="AA7" s="25"/>
       <c r="AB7" s="26"/>
       <c r="AC7" s="25"/>
-      <c r="AD7" s="183"/>
-      <c r="AE7" s="184"/>
-      <c r="AF7" s="184"/>
-      <c r="AG7" s="185"/>
+      <c r="AD7" s="192"/>
+      <c r="AE7" s="193"/>
+      <c r="AF7" s="193"/>
+      <c r="AG7" s="194"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
@@ -8863,13 +9338,13 @@
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
       <c r="O8" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P8" s="27" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R8" s="28">
         <v>20</v>
@@ -8885,10 +9360,10 @@
       <c r="AA8" s="25"/>
       <c r="AB8" s="26"/>
       <c r="AC8" s="25"/>
-      <c r="AD8" s="183"/>
-      <c r="AE8" s="184"/>
-      <c r="AF8" s="184"/>
-      <c r="AG8" s="185"/>
+      <c r="AD8" s="192"/>
+      <c r="AE8" s="193"/>
+      <c r="AF8" s="193"/>
+      <c r="AG8" s="194"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
@@ -8920,10 +9395,10 @@
       <c r="AA9" s="25"/>
       <c r="AB9" s="26"/>
       <c r="AC9" s="25"/>
-      <c r="AD9" s="183"/>
-      <c r="AE9" s="184"/>
-      <c r="AF9" s="184"/>
-      <c r="AG9" s="185"/>
+      <c r="AD9" s="192"/>
+      <c r="AE9" s="193"/>
+      <c r="AF9" s="193"/>
+      <c r="AG9" s="194"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
@@ -8955,17 +9430,17 @@
       <c r="AA10" s="25"/>
       <c r="AB10" s="26"/>
       <c r="AC10" s="25"/>
-      <c r="AD10" s="183"/>
-      <c r="AE10" s="184"/>
-      <c r="AF10" s="184"/>
-      <c r="AG10" s="185"/>
+      <c r="AD10" s="192"/>
+      <c r="AE10" s="193"/>
+      <c r="AF10" s="193"/>
+      <c r="AG10" s="194"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C11" s="31">
         <v>40</v>
@@ -8998,10 +9473,10 @@
       <c r="AA11" s="25"/>
       <c r="AB11" s="26"/>
       <c r="AC11" s="25"/>
-      <c r="AD11" s="183"/>
-      <c r="AE11" s="184"/>
-      <c r="AF11" s="184"/>
-      <c r="AG11" s="185"/>
+      <c r="AD11" s="192"/>
+      <c r="AE11" s="193"/>
+      <c r="AF11" s="193"/>
+      <c r="AG11" s="194"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
@@ -9033,10 +9508,10 @@
       <c r="AA12" s="25"/>
       <c r="AB12" s="26"/>
       <c r="AC12" s="25"/>
-      <c r="AD12" s="183"/>
-      <c r="AE12" s="184"/>
-      <c r="AF12" s="184"/>
-      <c r="AG12" s="185"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="193"/>
+      <c r="AF12" s="193"/>
+      <c r="AG12" s="194"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
@@ -9068,14 +9543,14 @@
       <c r="AA13" s="25"/>
       <c r="AB13" s="26"/>
       <c r="AC13" s="25"/>
-      <c r="AD13" s="183"/>
-      <c r="AE13" s="184"/>
-      <c r="AF13" s="184"/>
-      <c r="AG13" s="185"/>
+      <c r="AD13" s="192"/>
+      <c r="AE13" s="193"/>
+      <c r="AF13" s="193"/>
+      <c r="AG13" s="194"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="31"/>
@@ -9091,13 +9566,13 @@
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P14" s="27" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R14" s="28">
         <v>20</v>
@@ -9113,10 +9588,12 @@
       <c r="AA14" s="25"/>
       <c r="AB14" s="26"/>
       <c r="AC14" s="25"/>
-      <c r="AD14" s="183"/>
-      <c r="AE14" s="184"/>
-      <c r="AF14" s="184"/>
-      <c r="AG14" s="185"/>
+      <c r="AD14" s="195" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE14" s="196"/>
+      <c r="AF14" s="196"/>
+      <c r="AG14" s="197"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
@@ -9148,10 +9625,10 @@
       <c r="AA15" s="25"/>
       <c r="AB15" s="26"/>
       <c r="AC15" s="25"/>
-      <c r="AD15" s="183"/>
-      <c r="AE15" s="184"/>
-      <c r="AF15" s="184"/>
-      <c r="AG15" s="185"/>
+      <c r="AD15" s="192"/>
+      <c r="AE15" s="193"/>
+      <c r="AF15" s="193"/>
+      <c r="AG15" s="194"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
@@ -9183,10 +9660,10 @@
       <c r="AA16" s="25"/>
       <c r="AB16" s="26"/>
       <c r="AC16" s="25"/>
-      <c r="AD16" s="183"/>
-      <c r="AE16" s="184"/>
-      <c r="AF16" s="184"/>
-      <c r="AG16" s="185"/>
+      <c r="AD16" s="192"/>
+      <c r="AE16" s="193"/>
+      <c r="AF16" s="193"/>
+      <c r="AG16" s="194"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
@@ -9218,10 +9695,10 @@
       <c r="AA17" s="25"/>
       <c r="AB17" s="26"/>
       <c r="AC17" s="25"/>
-      <c r="AD17" s="183"/>
-      <c r="AE17" s="184"/>
-      <c r="AF17" s="184"/>
-      <c r="AG17" s="185"/>
+      <c r="AD17" s="192"/>
+      <c r="AE17" s="193"/>
+      <c r="AF17" s="193"/>
+      <c r="AG17" s="194"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
@@ -9253,10 +9730,10 @@
       <c r="AA18" s="25"/>
       <c r="AB18" s="26"/>
       <c r="AC18" s="25"/>
-      <c r="AD18" s="183"/>
-      <c r="AE18" s="184"/>
-      <c r="AF18" s="184"/>
-      <c r="AG18" s="185"/>
+      <c r="AD18" s="192"/>
+      <c r="AE18" s="193"/>
+      <c r="AF18" s="193"/>
+      <c r="AG18" s="194"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
@@ -9288,10 +9765,10 @@
       <c r="AA19" s="25"/>
       <c r="AB19" s="26"/>
       <c r="AC19" s="25"/>
-      <c r="AD19" s="183"/>
-      <c r="AE19" s="184"/>
-      <c r="AF19" s="184"/>
-      <c r="AG19" s="185"/>
+      <c r="AD19" s="192"/>
+      <c r="AE19" s="193"/>
+      <c r="AF19" s="193"/>
+      <c r="AG19" s="194"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
@@ -9323,10 +9800,10 @@
       <c r="AA20" s="25"/>
       <c r="AB20" s="26"/>
       <c r="AC20" s="25"/>
-      <c r="AD20" s="183"/>
-      <c r="AE20" s="184"/>
-      <c r="AF20" s="184"/>
-      <c r="AG20" s="185"/>
+      <c r="AD20" s="192"/>
+      <c r="AE20" s="193"/>
+      <c r="AF20" s="193"/>
+      <c r="AG20" s="194"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
@@ -9358,10 +9835,10 @@
       <c r="AA21" s="25"/>
       <c r="AB21" s="26"/>
       <c r="AC21" s="25"/>
-      <c r="AD21" s="183"/>
-      <c r="AE21" s="184"/>
-      <c r="AF21" s="184"/>
-      <c r="AG21" s="185"/>
+      <c r="AD21" s="192"/>
+      <c r="AE21" s="193"/>
+      <c r="AF21" s="193"/>
+      <c r="AG21" s="194"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
@@ -9393,10 +9870,10 @@
       <c r="AA22" s="25"/>
       <c r="AB22" s="26"/>
       <c r="AC22" s="25"/>
-      <c r="AD22" s="183"/>
-      <c r="AE22" s="184"/>
-      <c r="AF22" s="184"/>
-      <c r="AG22" s="185"/>
+      <c r="AD22" s="192"/>
+      <c r="AE22" s="193"/>
+      <c r="AF22" s="193"/>
+      <c r="AG22" s="194"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
@@ -9428,10 +9905,10 @@
       <c r="AA23" s="25"/>
       <c r="AB23" s="26"/>
       <c r="AC23" s="25"/>
-      <c r="AD23" s="183"/>
-      <c r="AE23" s="184"/>
-      <c r="AF23" s="184"/>
-      <c r="AG23" s="185"/>
+      <c r="AD23" s="192"/>
+      <c r="AE23" s="193"/>
+      <c r="AF23" s="193"/>
+      <c r="AG23" s="194"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
@@ -9463,10 +9940,10 @@
       <c r="AA24" s="25"/>
       <c r="AB24" s="26"/>
       <c r="AC24" s="25"/>
-      <c r="AD24" s="183"/>
-      <c r="AE24" s="184"/>
-      <c r="AF24" s="184"/>
-      <c r="AG24" s="185"/>
+      <c r="AD24" s="192"/>
+      <c r="AE24" s="193"/>
+      <c r="AF24" s="193"/>
+      <c r="AG24" s="194"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
@@ -9498,10 +9975,10 @@
       <c r="AA25" s="25"/>
       <c r="AB25" s="26"/>
       <c r="AC25" s="25"/>
-      <c r="AD25" s="183"/>
-      <c r="AE25" s="184"/>
-      <c r="AF25" s="184"/>
-      <c r="AG25" s="185"/>
+      <c r="AD25" s="192"/>
+      <c r="AE25" s="193"/>
+      <c r="AF25" s="193"/>
+      <c r="AG25" s="194"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
@@ -9533,10 +10010,10 @@
       <c r="AA26" s="25"/>
       <c r="AB26" s="26"/>
       <c r="AC26" s="25"/>
-      <c r="AD26" s="183"/>
-      <c r="AE26" s="184"/>
-      <c r="AF26" s="184"/>
-      <c r="AG26" s="185"/>
+      <c r="AD26" s="192"/>
+      <c r="AE26" s="193"/>
+      <c r="AF26" s="193"/>
+      <c r="AG26" s="194"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
@@ -9568,10 +10045,10 @@
       <c r="AA27" s="25"/>
       <c r="AB27" s="26"/>
       <c r="AC27" s="25"/>
-      <c r="AD27" s="183"/>
-      <c r="AE27" s="184"/>
-      <c r="AF27" s="184"/>
-      <c r="AG27" s="185"/>
+      <c r="AD27" s="192"/>
+      <c r="AE27" s="193"/>
+      <c r="AF27" s="193"/>
+      <c r="AG27" s="194"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
@@ -9603,10 +10080,10 @@
       <c r="AA28" s="25"/>
       <c r="AB28" s="26"/>
       <c r="AC28" s="25"/>
-      <c r="AD28" s="183"/>
-      <c r="AE28" s="184"/>
-      <c r="AF28" s="184"/>
-      <c r="AG28" s="185"/>
+      <c r="AD28" s="192"/>
+      <c r="AE28" s="193"/>
+      <c r="AF28" s="193"/>
+      <c r="AG28" s="194"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
@@ -9638,10 +10115,10 @@
       <c r="AA29" s="25"/>
       <c r="AB29" s="26"/>
       <c r="AC29" s="25"/>
-      <c r="AD29" s="183"/>
-      <c r="AE29" s="184"/>
-      <c r="AF29" s="184"/>
-      <c r="AG29" s="185"/>
+      <c r="AD29" s="192"/>
+      <c r="AE29" s="193"/>
+      <c r="AF29" s="193"/>
+      <c r="AG29" s="194"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
@@ -9673,10 +10150,10 @@
       <c r="AA30" s="25"/>
       <c r="AB30" s="26"/>
       <c r="AC30" s="25"/>
-      <c r="AD30" s="183"/>
-      <c r="AE30" s="184"/>
-      <c r="AF30" s="184"/>
-      <c r="AG30" s="185"/>
+      <c r="AD30" s="192"/>
+      <c r="AE30" s="193"/>
+      <c r="AF30" s="193"/>
+      <c r="AG30" s="194"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
@@ -9708,10 +10185,10 @@
       <c r="AA31" s="25"/>
       <c r="AB31" s="26"/>
       <c r="AC31" s="25"/>
-      <c r="AD31" s="183"/>
-      <c r="AE31" s="184"/>
-      <c r="AF31" s="184"/>
-      <c r="AG31" s="185"/>
+      <c r="AD31" s="192"/>
+      <c r="AE31" s="193"/>
+      <c r="AF31" s="193"/>
+      <c r="AG31" s="194"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
@@ -9743,10 +10220,10 @@
       <c r="AA32" s="25"/>
       <c r="AB32" s="26"/>
       <c r="AC32" s="25"/>
-      <c r="AD32" s="183"/>
-      <c r="AE32" s="184"/>
-      <c r="AF32" s="184"/>
-      <c r="AG32" s="185"/>
+      <c r="AD32" s="192"/>
+      <c r="AE32" s="193"/>
+      <c r="AF32" s="193"/>
+      <c r="AG32" s="194"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
@@ -9778,10 +10255,10 @@
       <c r="AA33" s="25"/>
       <c r="AB33" s="26"/>
       <c r="AC33" s="25"/>
-      <c r="AD33" s="183"/>
-      <c r="AE33" s="184"/>
-      <c r="AF33" s="184"/>
-      <c r="AG33" s="185"/>
+      <c r="AD33" s="192"/>
+      <c r="AE33" s="193"/>
+      <c r="AF33" s="193"/>
+      <c r="AG33" s="194"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
@@ -9813,10 +10290,10 @@
       <c r="AA34" s="25"/>
       <c r="AB34" s="26"/>
       <c r="AC34" s="25"/>
-      <c r="AD34" s="183"/>
-      <c r="AE34" s="184"/>
-      <c r="AF34" s="184"/>
-      <c r="AG34" s="185"/>
+      <c r="AD34" s="192"/>
+      <c r="AE34" s="193"/>
+      <c r="AF34" s="193"/>
+      <c r="AG34" s="194"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
@@ -9848,10 +10325,10 @@
       <c r="AA35" s="25"/>
       <c r="AB35" s="26"/>
       <c r="AC35" s="25"/>
-      <c r="AD35" s="183"/>
-      <c r="AE35" s="184"/>
-      <c r="AF35" s="184"/>
-      <c r="AG35" s="185"/>
+      <c r="AD35" s="192"/>
+      <c r="AE35" s="193"/>
+      <c r="AF35" s="193"/>
+      <c r="AG35" s="194"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
@@ -9883,10 +10360,10 @@
       <c r="AA36" s="25"/>
       <c r="AB36" s="26"/>
       <c r="AC36" s="25"/>
-      <c r="AD36" s="183"/>
-      <c r="AE36" s="184"/>
-      <c r="AF36" s="184"/>
-      <c r="AG36" s="185"/>
+      <c r="AD36" s="192"/>
+      <c r="AE36" s="193"/>
+      <c r="AF36" s="193"/>
+      <c r="AG36" s="194"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
@@ -9918,10 +10395,10 @@
       <c r="AA37" s="25"/>
       <c r="AB37" s="26"/>
       <c r="AC37" s="25"/>
-      <c r="AD37" s="183"/>
-      <c r="AE37" s="184"/>
-      <c r="AF37" s="184"/>
-      <c r="AG37" s="185"/>
+      <c r="AD37" s="192"/>
+      <c r="AE37" s="193"/>
+      <c r="AF37" s="193"/>
+      <c r="AG37" s="194"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
@@ -9953,10 +10430,10 @@
       <c r="AA38" s="25"/>
       <c r="AB38" s="26"/>
       <c r="AC38" s="25"/>
-      <c r="AD38" s="183"/>
-      <c r="AE38" s="184"/>
-      <c r="AF38" s="184"/>
-      <c r="AG38" s="185"/>
+      <c r="AD38" s="192"/>
+      <c r="AE38" s="193"/>
+      <c r="AF38" s="193"/>
+      <c r="AG38" s="194"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
@@ -9988,10 +10465,10 @@
       <c r="AA39" s="25"/>
       <c r="AB39" s="26"/>
       <c r="AC39" s="25"/>
-      <c r="AD39" s="183"/>
-      <c r="AE39" s="184"/>
-      <c r="AF39" s="184"/>
-      <c r="AG39" s="185"/>
+      <c r="AD39" s="192"/>
+      <c r="AE39" s="193"/>
+      <c r="AF39" s="193"/>
+      <c r="AG39" s="194"/>
     </row>
     <row r="40" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="52"/>
@@ -10023,32 +10500,35 @@
       <c r="AA40" s="38"/>
       <c r="AB40" s="39"/>
       <c r="AC40" s="38"/>
-      <c r="AD40" s="193"/>
-      <c r="AE40" s="194"/>
-      <c r="AF40" s="194"/>
-      <c r="AG40" s="195"/>
+      <c r="AD40" s="189"/>
+      <c r="AE40" s="190"/>
+      <c r="AF40" s="190"/>
+      <c r="AG40" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="AD40:AG40"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AD35:AG35"/>
-    <mergeCell ref="AD36:AG36"/>
-    <mergeCell ref="AD37:AG37"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="AD39:AG39"/>
-    <mergeCell ref="AD33:AG33"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AD25:AG25"/>
-    <mergeCell ref="AD26:AG26"/>
-    <mergeCell ref="AD27:AG27"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AD31:AG31"/>
-    <mergeCell ref="AD32:AG32"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AG3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="AD7:AG7"/>
     <mergeCell ref="AD8:AG8"/>
     <mergeCell ref="AD21:AG21"/>
@@ -10064,28 +10544,25 @@
     <mergeCell ref="AD19:AG19"/>
     <mergeCell ref="AD20:AG20"/>
     <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AG3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="AD33:AG33"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="AD26:AG26"/>
+    <mergeCell ref="AD27:AG27"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AD31:AG31"/>
+    <mergeCell ref="AD32:AG32"/>
+    <mergeCell ref="AD40:AG40"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AD35:AG35"/>
+    <mergeCell ref="AD36:AG36"/>
+    <mergeCell ref="AD37:AG37"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="AD39:AG39"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Bad Input" error="Input for this cell must be one of the listed types and all uppercase!" sqref="O4:O40">
@@ -10102,7 +10579,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10679,4 +11157,1160 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.7109375" style="211" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="211" customWidth="1"/>
+    <col min="4" max="5" width="10.28515625" style="211" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="259" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" style="259" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="211" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="211" customWidth="1"/>
+    <col min="11" max="12" width="10.28515625" style="211" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="211" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="211"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="205" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="206"/>
+      <c r="C1" s="207" t="str">
+        <f>IF(ISBLANK([1]Cover!D3),"",[1]Cover!D3)</f>
+        <v>*</v>
+      </c>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="208" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="209" t="str">
+        <f>IF(ISBLANK([1]Cover!O2),"",[1]Cover!O2)</f>
+        <v>*</v>
+      </c>
+      <c r="L1" s="209"/>
+      <c r="M1" s="210"/>
+    </row>
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="212" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="213"/>
+      <c r="C2" s="214" t="str">
+        <f>IF(ISBLANK([1]Cover!D4),"",[1]Cover!D4)</f>
+        <v>*</v>
+      </c>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="215" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="216">
+        <v>3</v>
+      </c>
+      <c r="L2" s="217" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="218">
+        <f>IF(ISBLANK([1]Cover!Q7),"",[1]Cover!Q7)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="219" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="219" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="219" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="220" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="219" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="221"/>
+      <c r="H3" s="219" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="219" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="219" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="219" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="220" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="219" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="222"/>
+      <c r="B4" s="223"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="227" t="str">
+        <f>IF(ISBLANK(D4),"",D4*E4)</f>
+        <v/>
+      </c>
+      <c r="G4" s="228"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="224"/>
+      <c r="K4" s="225"/>
+      <c r="L4" s="226"/>
+      <c r="M4" s="227" t="str">
+        <f>IF(ISBLANK(K4),"",K4*L4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="229"/>
+      <c r="B5" s="230"/>
+      <c r="C5" s="231"/>
+      <c r="D5" s="232"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="234" t="str">
+        <f t="shared" ref="F5:F24" si="0">IF(ISBLANK(D5),"",D5*E5)</f>
+        <v/>
+      </c>
+      <c r="G5" s="228"/>
+      <c r="H5" s="229"/>
+      <c r="I5" s="230"/>
+      <c r="J5" s="231"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="233"/>
+      <c r="M5" s="234" t="str">
+        <f t="shared" ref="M5:M24" si="1">IF(ISBLANK(K5),"",K5*L5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="229"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="233"/>
+      <c r="F6" s="234" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G6" s="228"/>
+      <c r="H6" s="229"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="231"/>
+      <c r="K6" s="232"/>
+      <c r="L6" s="233"/>
+      <c r="M6" s="234" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="229"/>
+      <c r="B7" s="230"/>
+      <c r="C7" s="231"/>
+      <c r="D7" s="232"/>
+      <c r="E7" s="233"/>
+      <c r="F7" s="234" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G7" s="228"/>
+      <c r="H7" s="229"/>
+      <c r="I7" s="230"/>
+      <c r="J7" s="231"/>
+      <c r="K7" s="232"/>
+      <c r="L7" s="233"/>
+      <c r="M7" s="234" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="229"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="231"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="233"/>
+      <c r="F8" s="234" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G8" s="228"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="230"/>
+      <c r="J8" s="231"/>
+      <c r="K8" s="232"/>
+      <c r="L8" s="233"/>
+      <c r="M8" s="234" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="229"/>
+      <c r="B9" s="230"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="232"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="234" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G9" s="228"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="230"/>
+      <c r="J9" s="231"/>
+      <c r="K9" s="232"/>
+      <c r="L9" s="233"/>
+      <c r="M9" s="234" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="229"/>
+      <c r="B10" s="230"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="232"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="234" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G10" s="228"/>
+      <c r="H10" s="229"/>
+      <c r="I10" s="230"/>
+      <c r="J10" s="231"/>
+      <c r="K10" s="232"/>
+      <c r="L10" s="233"/>
+      <c r="M10" s="234" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="229"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="231"/>
+      <c r="D11" s="232"/>
+      <c r="E11" s="233"/>
+      <c r="F11" s="234" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G11" s="228"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="230"/>
+      <c r="J11" s="231"/>
+      <c r="K11" s="232"/>
+      <c r="L11" s="233"/>
+      <c r="M11" s="234" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="229"/>
+      <c r="B12" s="230"/>
+      <c r="C12" s="231"/>
+      <c r="D12" s="232"/>
+      <c r="E12" s="233"/>
+      <c r="F12" s="234" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" s="228"/>
+      <c r="H12" s="229"/>
+      <c r="I12" s="230"/>
+      <c r="J12" s="231"/>
+      <c r="K12" s="232"/>
+      <c r="L12" s="233"/>
+      <c r="M12" s="234" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="229"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="231"/>
+      <c r="D13" s="232"/>
+      <c r="E13" s="233"/>
+      <c r="F13" s="234" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G13" s="228"/>
+      <c r="H13" s="229"/>
+      <c r="I13" s="230"/>
+      <c r="J13" s="231"/>
+      <c r="K13" s="232"/>
+      <c r="L13" s="233"/>
+      <c r="M13" s="234" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="229"/>
+      <c r="B14" s="230"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="232"/>
+      <c r="E14" s="233"/>
+      <c r="F14" s="234" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" s="228"/>
+      <c r="H14" s="229"/>
+      <c r="I14" s="230"/>
+      <c r="J14" s="231"/>
+      <c r="K14" s="232"/>
+      <c r="L14" s="233"/>
+      <c r="M14" s="234" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="229"/>
+      <c r="B15" s="230"/>
+      <c r="C15" s="231"/>
+      <c r="D15" s="232"/>
+      <c r="E15" s="233"/>
+      <c r="F15" s="234" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G15" s="228"/>
+      <c r="H15" s="229"/>
+      <c r="I15" s="230"/>
+      <c r="J15" s="231"/>
+      <c r="K15" s="232"/>
+      <c r="L15" s="233"/>
+      <c r="M15" s="234" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="229"/>
+      <c r="B16" s="230"/>
+      <c r="C16" s="231"/>
+      <c r="D16" s="232"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="234" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" s="228"/>
+      <c r="H16" s="229"/>
+      <c r="I16" s="230"/>
+      <c r="J16" s="231"/>
+      <c r="K16" s="232"/>
+      <c r="L16" s="233"/>
+      <c r="M16" s="234" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="229"/>
+      <c r="B17" s="230"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="233"/>
+      <c r="F17" s="234" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G17" s="228"/>
+      <c r="H17" s="229"/>
+      <c r="I17" s="230"/>
+      <c r="J17" s="231"/>
+      <c r="K17" s="232"/>
+      <c r="L17" s="233"/>
+      <c r="M17" s="234" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="229"/>
+      <c r="B18" s="230"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="233"/>
+      <c r="F18" s="234" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G18" s="228"/>
+      <c r="H18" s="229"/>
+      <c r="I18" s="230"/>
+      <c r="J18" s="231"/>
+      <c r="K18" s="232"/>
+      <c r="L18" s="233"/>
+      <c r="M18" s="234" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="229"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="232"/>
+      <c r="E19" s="233"/>
+      <c r="F19" s="234" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G19" s="228"/>
+      <c r="H19" s="229"/>
+      <c r="I19" s="230"/>
+      <c r="J19" s="231"/>
+      <c r="K19" s="232"/>
+      <c r="L19" s="233"/>
+      <c r="M19" s="234" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="229"/>
+      <c r="B20" s="230"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="233"/>
+      <c r="F20" s="234" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G20" s="228"/>
+      <c r="H20" s="229"/>
+      <c r="I20" s="230"/>
+      <c r="J20" s="231"/>
+      <c r="K20" s="232"/>
+      <c r="L20" s="233"/>
+      <c r="M20" s="234" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="229"/>
+      <c r="B21" s="230"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="232"/>
+      <c r="E21" s="233"/>
+      <c r="F21" s="234" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G21" s="228"/>
+      <c r="H21" s="229"/>
+      <c r="I21" s="230"/>
+      <c r="J21" s="231"/>
+      <c r="K21" s="232"/>
+      <c r="L21" s="233"/>
+      <c r="M21" s="234" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="229"/>
+      <c r="B22" s="230"/>
+      <c r="C22" s="231"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="233"/>
+      <c r="F22" s="234" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G22" s="228"/>
+      <c r="H22" s="229"/>
+      <c r="I22" s="230"/>
+      <c r="J22" s="231"/>
+      <c r="K22" s="232"/>
+      <c r="L22" s="233"/>
+      <c r="M22" s="234" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="229"/>
+      <c r="B23" s="230"/>
+      <c r="C23" s="231"/>
+      <c r="D23" s="232"/>
+      <c r="E23" s="233"/>
+      <c r="F23" s="234" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G23" s="228"/>
+      <c r="H23" s="229"/>
+      <c r="I23" s="230"/>
+      <c r="J23" s="231"/>
+      <c r="K23" s="232"/>
+      <c r="L23" s="233"/>
+      <c r="M23" s="234" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="235"/>
+      <c r="B24" s="236"/>
+      <c r="C24" s="237"/>
+      <c r="D24" s="238"/>
+      <c r="E24" s="239"/>
+      <c r="F24" s="240" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G24" s="228"/>
+      <c r="H24" s="235"/>
+      <c r="I24" s="236"/>
+      <c r="J24" s="237"/>
+      <c r="K24" s="238"/>
+      <c r="L24" s="239"/>
+      <c r="M24" s="240" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="241"/>
+      <c r="B25" s="242"/>
+      <c r="C25" s="243"/>
+      <c r="D25" s="244" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="245"/>
+      <c r="F25" s="246">
+        <f>ROUNDUP(SUM(F4:F24)*1.02,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="228"/>
+      <c r="H25" s="241"/>
+      <c r="I25" s="242"/>
+      <c r="J25" s="243"/>
+      <c r="K25" s="244" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" s="245"/>
+      <c r="M25" s="246">
+        <f>ROUNDUP(SUM(M4:M24)*1.02,-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="222"/>
+      <c r="B26" s="223"/>
+      <c r="C26" s="224"/>
+      <c r="D26" s="225"/>
+      <c r="E26" s="226"/>
+      <c r="F26" s="227" t="str">
+        <f t="shared" ref="F26:F46" si="2">IF(ISBLANK(D26),"",D26*E26)</f>
+        <v/>
+      </c>
+      <c r="G26" s="228"/>
+      <c r="H26" s="222"/>
+      <c r="I26" s="223"/>
+      <c r="J26" s="224"/>
+      <c r="K26" s="225"/>
+      <c r="L26" s="226"/>
+      <c r="M26" s="227" t="str">
+        <f t="shared" ref="M26:M46" si="3">IF(ISBLANK(K26),"",K26*L26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="229"/>
+      <c r="B27" s="230"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="232"/>
+      <c r="E27" s="233"/>
+      <c r="F27" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G27" s="228"/>
+      <c r="H27" s="229"/>
+      <c r="I27" s="230"/>
+      <c r="J27" s="231"/>
+      <c r="K27" s="232"/>
+      <c r="L27" s="233"/>
+      <c r="M27" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="229"/>
+      <c r="B28" s="230"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="232"/>
+      <c r="E28" s="233"/>
+      <c r="F28" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G28" s="228"/>
+      <c r="H28" s="229"/>
+      <c r="I28" s="230"/>
+      <c r="J28" s="231"/>
+      <c r="K28" s="232"/>
+      <c r="L28" s="233"/>
+      <c r="M28" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="229"/>
+      <c r="B29" s="230"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="232"/>
+      <c r="E29" s="233"/>
+      <c r="F29" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G29" s="228"/>
+      <c r="H29" s="229"/>
+      <c r="I29" s="230"/>
+      <c r="J29" s="231"/>
+      <c r="K29" s="232"/>
+      <c r="L29" s="233"/>
+      <c r="M29" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="229"/>
+      <c r="B30" s="230"/>
+      <c r="C30" s="231"/>
+      <c r="D30" s="232"/>
+      <c r="E30" s="233"/>
+      <c r="F30" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G30" s="228"/>
+      <c r="H30" s="229"/>
+      <c r="I30" s="230"/>
+      <c r="J30" s="231"/>
+      <c r="K30" s="232"/>
+      <c r="L30" s="233"/>
+      <c r="M30" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="229"/>
+      <c r="B31" s="230"/>
+      <c r="C31" s="231"/>
+      <c r="D31" s="232"/>
+      <c r="E31" s="233"/>
+      <c r="F31" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G31" s="228"/>
+      <c r="H31" s="229"/>
+      <c r="I31" s="230"/>
+      <c r="J31" s="231"/>
+      <c r="K31" s="232"/>
+      <c r="L31" s="233"/>
+      <c r="M31" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="229"/>
+      <c r="B32" s="230"/>
+      <c r="C32" s="231"/>
+      <c r="D32" s="232"/>
+      <c r="E32" s="233"/>
+      <c r="F32" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G32" s="228"/>
+      <c r="H32" s="229"/>
+      <c r="I32" s="230"/>
+      <c r="J32" s="231"/>
+      <c r="K32" s="232"/>
+      <c r="L32" s="233"/>
+      <c r="M32" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="229"/>
+      <c r="B33" s="230"/>
+      <c r="C33" s="231"/>
+      <c r="D33" s="232"/>
+      <c r="E33" s="233"/>
+      <c r="F33" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G33" s="228"/>
+      <c r="H33" s="229"/>
+      <c r="I33" s="230"/>
+      <c r="J33" s="231"/>
+      <c r="K33" s="232"/>
+      <c r="L33" s="233"/>
+      <c r="M33" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="229"/>
+      <c r="B34" s="230"/>
+      <c r="C34" s="231"/>
+      <c r="D34" s="232"/>
+      <c r="E34" s="233"/>
+      <c r="F34" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G34" s="228"/>
+      <c r="H34" s="229"/>
+      <c r="I34" s="230"/>
+      <c r="J34" s="231"/>
+      <c r="K34" s="232"/>
+      <c r="L34" s="233"/>
+      <c r="M34" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="229"/>
+      <c r="B35" s="230"/>
+      <c r="C35" s="231"/>
+      <c r="D35" s="232"/>
+      <c r="E35" s="233"/>
+      <c r="F35" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G35" s="228"/>
+      <c r="H35" s="229"/>
+      <c r="I35" s="230"/>
+      <c r="J35" s="231"/>
+      <c r="K35" s="232"/>
+      <c r="L35" s="233"/>
+      <c r="M35" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="229"/>
+      <c r="B36" s="230"/>
+      <c r="C36" s="231"/>
+      <c r="D36" s="232"/>
+      <c r="E36" s="233"/>
+      <c r="F36" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G36" s="228"/>
+      <c r="H36" s="229"/>
+      <c r="I36" s="230"/>
+      <c r="J36" s="231"/>
+      <c r="K36" s="232"/>
+      <c r="L36" s="233"/>
+      <c r="M36" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="229"/>
+      <c r="B37" s="230"/>
+      <c r="C37" s="231"/>
+      <c r="D37" s="232"/>
+      <c r="E37" s="233"/>
+      <c r="F37" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G37" s="228"/>
+      <c r="H37" s="229"/>
+      <c r="I37" s="230"/>
+      <c r="J37" s="231"/>
+      <c r="K37" s="232"/>
+      <c r="L37" s="233"/>
+      <c r="M37" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="229"/>
+      <c r="B38" s="230"/>
+      <c r="C38" s="231"/>
+      <c r="D38" s="232"/>
+      <c r="E38" s="233"/>
+      <c r="F38" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G38" s="228"/>
+      <c r="H38" s="229"/>
+      <c r="I38" s="230"/>
+      <c r="J38" s="231"/>
+      <c r="K38" s="232"/>
+      <c r="L38" s="233"/>
+      <c r="M38" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="229"/>
+      <c r="B39" s="230"/>
+      <c r="C39" s="231"/>
+      <c r="D39" s="232"/>
+      <c r="E39" s="233"/>
+      <c r="F39" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G39" s="228"/>
+      <c r="H39" s="229"/>
+      <c r="I39" s="230"/>
+      <c r="J39" s="231"/>
+      <c r="K39" s="232"/>
+      <c r="L39" s="233"/>
+      <c r="M39" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="229"/>
+      <c r="B40" s="230"/>
+      <c r="C40" s="231"/>
+      <c r="D40" s="232"/>
+      <c r="E40" s="233"/>
+      <c r="F40" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G40" s="228"/>
+      <c r="H40" s="229"/>
+      <c r="I40" s="230"/>
+      <c r="J40" s="231"/>
+      <c r="K40" s="232"/>
+      <c r="L40" s="233"/>
+      <c r="M40" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="229"/>
+      <c r="B41" s="230"/>
+      <c r="C41" s="231"/>
+      <c r="D41" s="232"/>
+      <c r="E41" s="233"/>
+      <c r="F41" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G41" s="228"/>
+      <c r="H41" s="229"/>
+      <c r="I41" s="230"/>
+      <c r="J41" s="231"/>
+      <c r="K41" s="232"/>
+      <c r="L41" s="233"/>
+      <c r="M41" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="229"/>
+      <c r="B42" s="230"/>
+      <c r="C42" s="231"/>
+      <c r="D42" s="232"/>
+      <c r="E42" s="233"/>
+      <c r="F42" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G42" s="228"/>
+      <c r="H42" s="229"/>
+      <c r="I42" s="230"/>
+      <c r="J42" s="231"/>
+      <c r="K42" s="232"/>
+      <c r="L42" s="233"/>
+      <c r="M42" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="229"/>
+      <c r="B43" s="230"/>
+      <c r="C43" s="231"/>
+      <c r="D43" s="232"/>
+      <c r="E43" s="233"/>
+      <c r="F43" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G43" s="228"/>
+      <c r="H43" s="229"/>
+      <c r="I43" s="230"/>
+      <c r="J43" s="231"/>
+      <c r="K43" s="232"/>
+      <c r="L43" s="233"/>
+      <c r="M43" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="229"/>
+      <c r="B44" s="230"/>
+      <c r="C44" s="231"/>
+      <c r="D44" s="232"/>
+      <c r="E44" s="233"/>
+      <c r="F44" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G44" s="228"/>
+      <c r="H44" s="229"/>
+      <c r="I44" s="230"/>
+      <c r="J44" s="231"/>
+      <c r="K44" s="232"/>
+      <c r="L44" s="233"/>
+      <c r="M44" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="229"/>
+      <c r="B45" s="230"/>
+      <c r="C45" s="231"/>
+      <c r="D45" s="232"/>
+      <c r="E45" s="233"/>
+      <c r="F45" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G45" s="228"/>
+      <c r="H45" s="229"/>
+      <c r="I45" s="230"/>
+      <c r="J45" s="231"/>
+      <c r="K45" s="232"/>
+      <c r="L45" s="233"/>
+      <c r="M45" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="235"/>
+      <c r="B46" s="236"/>
+      <c r="C46" s="237"/>
+      <c r="D46" s="238"/>
+      <c r="E46" s="239"/>
+      <c r="F46" s="240" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G46" s="228"/>
+      <c r="H46" s="235"/>
+      <c r="I46" s="236"/>
+      <c r="J46" s="237"/>
+      <c r="K46" s="238"/>
+      <c r="L46" s="239"/>
+      <c r="M46" s="240" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="241"/>
+      <c r="B47" s="242"/>
+      <c r="C47" s="243"/>
+      <c r="D47" s="244" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="245"/>
+      <c r="F47" s="246">
+        <f>ROUNDUP(SUM(F26:F46)*1.02,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="228"/>
+      <c r="H47" s="241"/>
+      <c r="I47" s="242"/>
+      <c r="J47" s="243"/>
+      <c r="K47" s="244" t="s">
+        <v>65</v>
+      </c>
+      <c r="L47" s="245"/>
+      <c r="M47" s="246">
+        <f>ROUNDUP(SUM(M26:M46)*1.02,-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="247"/>
+      <c r="B48" s="248"/>
+      <c r="C48" s="248"/>
+      <c r="D48" s="248"/>
+      <c r="E48" s="248"/>
+      <c r="F48" s="249"/>
+      <c r="G48" s="228"/>
+      <c r="H48" s="247"/>
+      <c r="I48" s="248"/>
+      <c r="J48" s="248"/>
+      <c r="K48" s="248"/>
+      <c r="L48" s="248"/>
+      <c r="M48" s="249"/>
+    </row>
+    <row r="49" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="250" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="219" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="251"/>
+      <c r="D49" s="219" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="220" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="219" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="228"/>
+      <c r="H49" s="250" t="s">
+        <v>102</v>
+      </c>
+      <c r="I49" s="219" t="s">
+        <v>62</v>
+      </c>
+      <c r="J49" s="251"/>
+      <c r="K49" s="219" t="s">
+        <v>101</v>
+      </c>
+      <c r="L49" s="220" t="s">
+        <v>15</v>
+      </c>
+      <c r="M49" s="219" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="252"/>
+      <c r="B50" s="253"/>
+      <c r="C50" s="254"/>
+      <c r="D50" s="255"/>
+      <c r="E50" s="256"/>
+      <c r="F50" s="257" t="str">
+        <f>IF(ISBLANK(D50),"",ROUNDUP((D50*E50)*0.5*1.02,-1))</f>
+        <v/>
+      </c>
+      <c r="G50" s="258"/>
+      <c r="H50" s="252"/>
+      <c r="I50" s="253"/>
+      <c r="J50" s="254"/>
+      <c r="K50" s="255"/>
+      <c r="L50" s="256"/>
+      <c r="M50" s="257" t="str">
+        <f>IF(ISBLANK(K50),"",ROUNDUP((K50*L50)*0.5*1.02,-1))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="FEA9" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="18">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="G3:G50"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.5" header="0.5" footer="0.25"/>
+  <pageSetup scale="70" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader xml:space="preserve">&amp;C&amp;"Arial,Bold"&amp;16NMBS BRIDGING WORKSHEET&amp;R
+</oddHeader>
+    <oddFooter>&amp;L&amp;9Form Revised: 2/12/2008
+File: &amp;F</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>